--- a/Guru99/3 - Design & Execution/TC_V2.xlsx
+++ b/Guru99/3 - Design & Execution/TC_V2.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru99\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru99\3 - Design &amp; Execution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C3DAE0-7A3D-4843-9C4B-DC0189443B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D584BE-A8B0-49A1-AB64-EACF004ACF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
-    <sheet name="Login" sheetId="1" r:id="rId2"/>
+    <sheet name="Login &amp; Logout" sheetId="1" r:id="rId2"/>
     <sheet name="New customer" sheetId="2" r:id="rId3"/>
     <sheet name="Edit customer" sheetId="4" r:id="rId4"/>
     <sheet name="Delete customer" sheetId="5" r:id="rId5"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="325">
   <si>
     <t>ID</t>
   </si>
@@ -998,12 +998,537 @@
   <si>
     <t>not detected</t>
   </si>
+  <si>
+    <t>Verify Login &amp; Logout (Suite)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Verify Manager can Login &amp; Logout (Sub-Suite)								</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Verify Customer can Login &amp; Logout (Sub-Suite)								</t>
+  </si>
+  <si>
+    <t>As Expected
+As Expected</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>TC_Login_006</t>
+  </si>
+  <si>
+    <t>TC_Login_007</t>
+  </si>
+  <si>
+    <t>TC_Login_008</t>
+  </si>
+  <si>
+    <t>TC_Login_009</t>
+  </si>
+  <si>
+    <t>TC_Login_010</t>
+  </si>
+  <si>
+    <t>TC_Logout_2</t>
+  </si>
+  <si>
+    <t>Verify customer login</t>
+  </si>
+  <si>
+    <t>Verify customer logout</t>
+  </si>
+  <si>
+    <t>hish</t>
+  </si>
+  <si>
+    <t>Verify Manager adding new customer (Suite)</t>
+  </si>
+  <si>
+    <t>Verify Edit customer module (Suite)</t>
+  </si>
+  <si>
+    <t>TC_form_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Verify Manager can access Edit Customer form (Sub-Suite)								</t>
+  </si>
+  <si>
+    <t>Verify manager can access edit customer form</t>
+  </si>
+  <si>
+    <t>Verify with valid ID</t>
+  </si>
+  <si>
+    <t>1) website is opened
+2) Previously manager loged in</t>
+  </si>
+  <si>
+    <t>id = 123456</t>
+  </si>
+  <si>
+    <t>TC_form_002</t>
+  </si>
+  <si>
+    <t>Verify with ID containes special character</t>
+  </si>
+  <si>
+    <t>id = 12345%
+id = #12345</t>
+  </si>
+  <si>
+    <t>TC_form_003</t>
+  </si>
+  <si>
+    <t>TC_form_004</t>
+  </si>
+  <si>
+    <t>TC_form_005</t>
+  </si>
+  <si>
+    <t>Verify with ID containes character</t>
+  </si>
+  <si>
+    <t>id = 12345f
+id = r12346</t>
+  </si>
+  <si>
+    <t>Verify with ID start with space</t>
+  </si>
+  <si>
+    <t>id =  12345</t>
+  </si>
+  <si>
+    <t>Verify with invalid ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id = 654321
+</t>
+  </si>
+  <si>
+    <t>error message appears that tell the user that ID can not have special character</t>
+  </si>
+  <si>
+    <t>error message appears that tell the user that ID can not have character</t>
+  </si>
+  <si>
+    <t>error message appears that tell the user that ID can not start with space</t>
+  </si>
+  <si>
+    <t>error message appears that till the user that the customer ID is wrong</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>low(usabilty bug)</t>
+  </si>
+  <si>
+    <t>1) website is opened
+2) Previously manager loged in
+3) customer account is previously created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Verify Manager can Edit customer info (Sub-Suite)								</t>
+  </si>
+  <si>
+    <t>Verify manager can access
+ edit customer form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Edit_Customer fields labels </t>
+  </si>
+  <si>
+    <t>TC_Edit_Customer_01</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_03</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_04</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_05</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_06</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_07</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_08</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_09</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_010</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_11</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_12</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_13</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_14</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_15</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_16</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_17</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_18</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_19</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_20</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_21</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_22</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_23</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_24</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_25</t>
+  </si>
+  <si>
+    <t>TC_Edit
+Customer_02</t>
+  </si>
+  <si>
+    <t>Edit_customer page opened succefully</t>
+  </si>
+  <si>
+    <t>Verify manager can
+Edit_Customer info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) website is opened
+2) manager previosly logedin
+3) edit page is opened after pass edit form
+4) customer already have an account
+</t>
+  </si>
+  <si>
+    <t>Verify Edit customer address with valid data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address = kafr tohormos
+</t>
+  </si>
+  <si>
+    <t>Verify Edit customer address with blank address field</t>
+  </si>
+  <si>
+    <t>Verify Edit customer address with address start with space</t>
+  </si>
+  <si>
+    <t>Verify Edit customer address with address containes special characters</t>
+  </si>
+  <si>
+    <t>Verify Edit customer city with blank city field</t>
+  </si>
+  <si>
+    <t>Verify Edit customer city with city start with space</t>
+  </si>
+  <si>
+    <t>Verify Edit customer city with city containes special characters</t>
+  </si>
+  <si>
+    <t>Verify Edit customer city with city name containes numbers</t>
+  </si>
+  <si>
+    <t>Verify Edit customer state with blank state field</t>
+  </si>
+  <si>
+    <t>Verify Edit customer state with state start with space</t>
+  </si>
+  <si>
+    <t>Verify Edit customer state with state containes special characters</t>
+  </si>
+  <si>
+    <t>Verify Edit customer state with state name containes characters</t>
+  </si>
+  <si>
+    <t>Verify Edit customer telephone with blank telephone field</t>
+  </si>
+  <si>
+    <t>Verify Edit customer telephone with telephone start with space</t>
+  </si>
+  <si>
+    <t>Verify Edit customer telephone with telephone containes special characters</t>
+  </si>
+  <si>
+    <t>Verify Edit customer telephone with telephone name containes characters</t>
+  </si>
+  <si>
+    <t>Verify Edit customer PIN with blank PIN field</t>
+  </si>
+  <si>
+    <t>Verify Edit customer PIN with PIN start with space</t>
+  </si>
+  <si>
+    <t>Verify Edit customer PIN with PIN containes special characters</t>
+  </si>
+  <si>
+    <t>Verify Edit customer PIN with PIN containes characters</t>
+  </si>
+  <si>
+    <t>Verify Edit customer PIN with PIN less than 6 digits</t>
+  </si>
+  <si>
+    <t>Verify Edit customer email with blank email field</t>
+  </si>
+  <si>
+    <t>Verify Edit customer email with email start with space</t>
+  </si>
+  <si>
+    <t>Verify Edit customer email with invalid email</t>
+  </si>
+  <si>
+    <t>address =  kafr tohormos</t>
+  </si>
+  <si>
+    <t>address = &amp;kafr tohormos
+address = kafr tohormos*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">address = </t>
+  </si>
+  <si>
+    <t>city =  gize</t>
+  </si>
+  <si>
+    <t>city = &amp;gize
+city =  gize$</t>
+  </si>
+  <si>
+    <t>city =  9ize
+city =  giz8e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">telephone = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN = 123
+PIN = 1234567
+PIN = 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email = </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>email =  koko@lolo.com</t>
+  </si>
+  <si>
+    <t>email = @lolo.com
+email = koko@lolo.
+Email = lolo.com
+email = koko@lolo.coom</t>
+  </si>
+  <si>
+    <t>PIN =  123456</t>
+  </si>
+  <si>
+    <t>PIN = $123456
+PIN = 123456@</t>
+  </si>
+  <si>
+    <t>PIN = H123456
+PIN = 123456U</t>
+  </si>
+  <si>
+    <t>tele = $123456
+tele = 123456@</t>
+  </si>
+  <si>
+    <t>tele = H123456
+tele = 123456U</t>
+  </si>
+  <si>
+    <t>tele =  123456</t>
+  </si>
+  <si>
+    <t>state = &amp;gize
+state =  gize$</t>
+  </si>
+  <si>
+    <t>state =  9ize
+state =  giz8e</t>
+  </si>
+  <si>
+    <t>state =  gize</t>
+  </si>
+  <si>
+    <t>1) enter all required fields
+2) click submit button</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the address is changed succesfully</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the address field can not be blank</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the city field can not be blank</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the state field can not be blank</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the telephone field can not be blank</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the PIN field can not be blank</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the address field can not start with space</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the city field can not start with space</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the state field can not start with space</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the telephone field can not start with space</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the address field can not containes special characters</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the city field can not containes special characters</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the state field can not containes special characters</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the telephone field can not containes special characters</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the city field can not containes numbers</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the state field can not containes numbers</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the telephone field can not containes characters</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the PIN field can not start with space</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the PIN field can not containes special characters</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the PIN field can not containes characters</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the PIN field can not be less or greater that 6 digits</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the email field can not start with space</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the email field can not be blank</t>
+  </si>
+  <si>
+    <t>message appears that tell the user that the email you entered is formatlly wrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labels match SRS </t>
+  </si>
+  <si>
+    <t>Verify Delete customer module (Suite)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Verify Manager can Delete Customer  (Sub-Suite)								</t>
+  </si>
+  <si>
+    <t>TC_delete_001</t>
+  </si>
+  <si>
+    <t>TC_delete_002</t>
+  </si>
+  <si>
+    <t>TC_delete_003</t>
+  </si>
+  <si>
+    <t>TC_delete_004</t>
+  </si>
+  <si>
+    <t>TC_delete_005</t>
+  </si>
+  <si>
+    <t>Verify Manager can Delete Customer</t>
+  </si>
+  <si>
+    <t>message appears to the user tell him the customer deleted successfully</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1048,8 +1573,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1079,8 +1620,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor theme="4" tint="0.39994506668294322"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor theme="9" tint="-0.24994659260841701"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1116,6 +1667,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1124,7 +1732,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1132,9 +1740,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1145,17 +1750,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1176,13 +1775,223 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Style 1" xfId="1" xr:uid="{48540A74-5A38-46CE-A885-A7DEB07E9381}"/>
     <cellStyle name="Style 2" xfId="2" xr:uid="{C54BD104-D706-4CC8-B1AF-F972C2684223}"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1302,6 +2111,131 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="double">
+          <color rgb="FF3F3F3F"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="double">
+          <color rgb="FF3F3F3F"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="double">
+          <color rgb="FF3F3F3F"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="double">
+          <color rgb="FF3F3F3F"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1461,11 +2395,6 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-3058-41C2-B2F4-F3A631D2285C}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1508,11 +2437,48 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-3058-41C2-B2F4-F3A631D2285C}"/>
-              </c:ext>
-            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1573,18 +2539,21 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Dashboard!$A$6:$A$8</c15:sqref>
+                    <c15:sqref>Dashboard!$A$6:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Dashboard!$A$7:$A$8</c:f>
+              <c:f>Dashboard!$A$7:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>PASS</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Fail</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Not Executed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1594,19 +2563,22 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Dashboard!$B$6:$B$8</c15:sqref>
+                    <c15:sqref>Dashboard!$B$6:$B$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Dashboard!$B$7:$B$8</c:f>
+              <c:f>Dashboard!$B$7:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1616,7 +2588,7 @@
               <c15:categoryFilterExceptions/>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3058-41C2-B2F4-F3A631D2285C}"/>
+              <c16:uniqueId val="{0000000C-5FFE-4145-88E4-CC645F35BA14}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1648,8 +2620,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.76789160798061307"/>
           <c:y val="0.38187419183083593"/>
-          <c:w val="0.13536324993874344"/>
-          <c:h val="0.30078313591197442"/>
+          <c:w val="0.23210849368647518"/>
+          <c:h val="0.39255339024548097"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1664,7 +2636,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
@@ -1728,7 +2700,400 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="ltUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="accent1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent1"/>
+                </a:innerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="ltUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="accent2"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent2"/>
+                </a:innerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="ltUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="accent3"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent3"/>
+                </a:innerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="ltUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="accent4"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent4"/>
+                </a:innerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Total TC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PASS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fail</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Not Executed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$6:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-59C5-499D-A7DC-CA8D15D8BE6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="85000"/>
+        <a:lumOff val="15000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2264,6 +3629,540 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="252">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2304,6 +4203,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF3D2198-0043-C46B-35F4-FB8131692C92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2311,16 +4246,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7208EBF7-A7E1-42D0-B212-AF2B7CCC1922}" name="Table1" displayName="Table1" ref="A2:B9" totalsRowShown="0" headerRowCellStyle="Style 2" dataCellStyle="Style 2">
   <autoFilter ref="A2:B9" xr:uid="{7208EBF7-A7E1-42D0-B212-AF2B7CCC1922}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B72A5ACC-2E50-4F97-A328-3FEEF764509B}" name="#" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{7CBB9464-FC05-4E8B-982E-2A12E8025BC6}" name="Data" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Style 2"/>
+    <tableColumn id="1" xr3:uid="{B72A5ACC-2E50-4F97-A328-3FEEF764509B}" name="#" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{7CBB9464-FC05-4E8B-982E-2A12E8025BC6}" name="Data" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Style 2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0202C32E-96A3-419F-97DA-B13A430CF459}" name="Table2" displayName="Table2" ref="A1:I6" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
-  <autoFilter ref="A1:I6" xr:uid="{0202C32E-96A3-419F-97DA-B13A430CF459}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF1DA6A8-0406-40EC-847E-90AA70E693C4}" name="Table24" displayName="Table24" ref="A11:J17" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
+  <autoFilter ref="A11:J17" xr:uid="{CF1DA6A8-0406-40EC-847E-90AA70E693C4}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2330,17 +4265,55 @@
     <filterColumn colId="6" hiddenButton="1"/>
     <filterColumn colId="7" hiddenButton="1"/>
     <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{2071B39D-89B8-424C-A673-240D56D9FF2C}" name="ID" dataDxfId="20" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{5CA6C4AF-7B72-4BFE-ACD6-5036B4A6A503}" name="Test Scenario" dataDxfId="19" dataCellStyle="Style 2"/>
-    <tableColumn id="3" xr3:uid="{43958177-75C6-46BD-B24E-1922DF08EB71}" name="Test Case" dataDxfId="18" dataCellStyle="Style 2"/>
-    <tableColumn id="4" xr3:uid="{E9FBB7B4-A3F3-43F9-BE99-8108EEC1DF80}" name="Precondition" dataDxfId="17" dataCellStyle="Style 2"/>
-    <tableColumn id="5" xr3:uid="{3C120ACD-C820-40F0-A811-FB71965A8456}" name="Test Data" dataDxfId="16" dataCellStyle="Style 2"/>
-    <tableColumn id="6" xr3:uid="{F840AE51-B943-4D36-B3DD-DA6D7928A78B}" name="Test Steps" dataDxfId="15" dataCellStyle="Style 2"/>
-    <tableColumn id="7" xr3:uid="{3CAB261C-D69B-43E7-A1D7-1A6BA20FD74A}" name="Expected" dataDxfId="14" dataCellStyle="Style 2"/>
-    <tableColumn id="8" xr3:uid="{D73F2198-7F9E-4E49-B11E-8EFAB3145591}" name="Actual" dataDxfId="13" dataCellStyle="Style 2"/>
-    <tableColumn id="9" xr3:uid="{3A901906-294C-4EAB-8697-53959199AE33}" name="Status" dataDxfId="12" dataCellStyle="Style 1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:J17">
+    <sortCondition ref="I11:I17"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{3784502C-18CF-41CC-9169-218E5E27D77D}" name="ID" dataDxfId="55" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{5A760E70-50B6-4936-8A81-202B446C838B}" name="Test Scenario" dataDxfId="54" dataCellStyle="Style 2"/>
+    <tableColumn id="3" xr3:uid="{3105FEE7-F800-4A41-8C70-539055D79DF8}" name="Test Case" dataDxfId="53" dataCellStyle="Style 2"/>
+    <tableColumn id="4" xr3:uid="{17F3EF40-0ABC-40FD-8AAD-25272842DA14}" name="Precondition" dataDxfId="52" dataCellStyle="Style 2"/>
+    <tableColumn id="5" xr3:uid="{E8A17FF4-A33A-486C-94E5-39769F7E53E2}" name="Test Data" dataDxfId="51" dataCellStyle="Style 2"/>
+    <tableColumn id="6" xr3:uid="{323B91BA-E18F-4ECF-9C24-0DD4448CCFF6}" name="Test Steps" dataDxfId="50" dataCellStyle="Style 2"/>
+    <tableColumn id="7" xr3:uid="{F6243F6B-BDD4-4668-B403-E817CA6926E7}" name="Expected" dataDxfId="49" dataCellStyle="Style 2"/>
+    <tableColumn id="8" xr3:uid="{11930CB6-CE93-4E81-9284-3985ED7DF1C1}" name="Actual" dataDxfId="48" dataCellStyle="Style 2"/>
+    <tableColumn id="10" xr3:uid="{49C1EF10-7281-4C78-A928-5A561D4DE6A5}" name="Priority" dataDxfId="46" dataCellStyle="Style 2"/>
+    <tableColumn id="9" xr3:uid="{0EB40056-6AA7-48E7-A87E-9D3D000F5424}" name="Status" dataDxfId="47" dataCellStyle="Style 1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{055B3D66-4363-45FC-870D-81B4816EA226}" name="Table245" displayName="Table245" ref="A3:J9" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
+  <autoFilter ref="A3:J9" xr:uid="{055B3D66-4363-45FC-870D-81B4816EA226}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J9">
+    <sortCondition ref="I11:I17"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{490ED60D-B8A5-4191-BC26-B6354824686C}" name="ID" dataDxfId="43" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{B56BF91F-C7D9-4050-B849-9236EEDCACBC}" name="Test Scenario" dataDxfId="42" dataCellStyle="Style 2"/>
+    <tableColumn id="3" xr3:uid="{39B7B130-5AFE-4189-A4C3-073F436E5FC5}" name="Test Case" dataDxfId="41" dataCellStyle="Style 2"/>
+    <tableColumn id="4" xr3:uid="{9752297E-8369-4785-A0E4-A4C176425562}" name="Precondition" dataDxfId="40" dataCellStyle="Style 2"/>
+    <tableColumn id="5" xr3:uid="{C718113A-5259-45B0-B023-1F6CEF3B7A64}" name="Test Data" dataDxfId="39" dataCellStyle="Style 2"/>
+    <tableColumn id="6" xr3:uid="{46F14A98-4C7F-49A5-9BA9-7EB42A6EEF84}" name="Test Steps" dataDxfId="38" dataCellStyle="Style 2"/>
+    <tableColumn id="7" xr3:uid="{FC55A5D5-A5D7-40B8-8BBE-671A13FF1C15}" name="Expected" dataDxfId="37" dataCellStyle="Style 2"/>
+    <tableColumn id="8" xr3:uid="{478FFA4B-BD87-44B7-8507-3C6C558FC75A}" name="Actual" dataDxfId="36" dataCellStyle="Style 2"/>
+    <tableColumn id="10" xr3:uid="{470D9E79-D922-4F1D-BCB4-F8568775ED56}" name="Priority" dataDxfId="35" dataCellStyle="Style 2"/>
+    <tableColumn id="9" xr3:uid="{C0729C5C-2137-4868-8B15-44DA6DAFAFD1}" name="Status" dataDxfId="34" dataCellStyle="Style 1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2611,26 +4584,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F5E454-6D40-4766-A30A-D6B7E7603A7B}">
   <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="25.7265625" style="18" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="18"/>
+    <col min="1" max="2" width="25.7265625" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2638,7 +4611,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2646,7 +4619,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2654,39 +4627,39 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="1">
-        <f>SUM(COUNTIF(Login!A1:A78, "*TC*"),COUNTIF('New customer'!A:A, "*TC*"))</f>
-        <v>36</v>
+        <f>SUM(COUNTIF('Login &amp; Logout'!A3:A81, "*TC*"),COUNTIF('New customer'!A:A, "*TC*"),COUNTIF('Edit customer'!A:A, "*TC*"),COUNTIF('Delete customer'!A:A, "*TC*"))</f>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1">
-        <f>SUM(COUNTIF(Login!I:I,"pass"),COUNTIF('New customer'!I:I,"pass"))</f>
-        <v>26</v>
+        <f>SUM(COUNTIF('Login &amp; Logout'!J3:J17,"pass"),COUNTIF('New customer'!A:J,"pass"),COUNTIF('Edit customer'!A:J,"pass"),COUNTIF('Delete customer'!A:J,"pass"))</f>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1">
-        <f>SUM(COUNTIF('New customer'!I:I,"fail"),COUNTIF(Login!I:I, "fail"))</f>
+        <f>SUM(COUNTIF('Login &amp; Logout'!J3:J17,"fail"),COUNTIF('New customer'!A:J,"fail"),COUNTIF('Edit customer'!A:J,"fail"),COUNTIF('Delete customer'!A:J,"fail"))</f>
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="1">
-        <f>SUM(COUNTIF(Login!I:I,"Not Executed"),COUNTIF('New customer'!I:I,"Not Executed"))</f>
-        <v>0</v>
+        <f>SUM(COUNTIF('Login &amp; Logout'!J3:J17,"not executed"),COUNTIF('New customer'!A:J,"not executed"),COUNTIF('Edit customer'!A:J,"not executed"),COUNTIF('Delete customer'!A:J,"not executed"))</f>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2702,10 +4675,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" colorId="8" zoomScale="52" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F5"/>
+    <sheetView defaultGridColor="0" topLeftCell="A5" colorId="8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.4"/>
@@ -2717,1174 +4690,1496 @@
     <col min="5" max="5" width="22.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" style="2" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6328125" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="2">
+        <f>COUNTIF('Login &amp; Logout'!J3:J17,"pass")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="117" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+    <row r="4" spans="1:11" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+    <row r="5" spans="1:11" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="5" t="s">
+      <c r="H5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+    <row r="6" spans="1:11" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="5" t="s">
+      <c r="H6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
+    <row r="7" spans="1:11" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="5" t="s">
+      <c r="H7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
+    <row r="8" spans="1:11" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="5" t="s">
+      <c r="H8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
+    <row r="9" spans="1:11" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="5" t="s">
+      <c r="H9" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:9" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:9" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="29" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="30" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="31" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="32" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:11" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="7"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+  <conditionalFormatting sqref="I18:I1048576 J11:J17">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="12" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I7">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+  <conditionalFormatting sqref="I18 J12:J17">
+    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I7">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+  <conditionalFormatting sqref="I18 J13:J17">
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
+      <formula>"Default"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J9">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+      <formula>"Not Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J9">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J9">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>"Default"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{CDBE38D2-1416-4A51-9C0C-7EC734CFC5A7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J17 I18:I1048576 J4:J9" xr:uid="{CDBE38D2-1416-4A51-9C0C-7EC734CFC5A7}">
       <formula1>"Not Executed,PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182AED3B-5B54-47CA-9351-D206B6473FEB}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="43" zoomScaleNormal="35" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" zoomScale="32" zoomScaleNormal="35" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="30.7265625" customWidth="1"/>
-    <col min="6" max="6" width="50.7265625" customWidth="1"/>
-    <col min="7" max="7" width="30.7265625" customWidth="1"/>
-    <col min="8" max="8" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="9" width="35.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I2" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+    <row r="3" spans="1:10" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I3" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="14" t="s">
+    <row r="4" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="14" t="s">
+    <row r="5" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="14" t="s">
+    <row r="6" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H6" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I6" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="14" t="s">
+    <row r="7" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="14" t="s">
+    <row r="8" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H8" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I8" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="14" t="s">
+    <row r="9" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H9" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I9" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="14" t="s">
+    <row r="10" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E10" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F10" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H10" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I10" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="14" t="s">
+    <row r="11" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E11" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H11" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I11" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="14" t="s">
+    <row r="12" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E12" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16" t="s">
+      <c r="H12" s="12"/>
+      <c r="I12" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="14" t="s">
+    <row r="13" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E13" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16" t="s">
+      <c r="H13" s="12"/>
+      <c r="I13" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="14" t="s">
+    <row r="14" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E14" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G14" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16" t="s">
+      <c r="H14" s="12"/>
+      <c r="I14" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="14" t="s">
+    <row r="15" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C15" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E15" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G15" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16" t="s">
+      <c r="H15" s="12"/>
+      <c r="I15" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="14" t="s">
+    <row r="16" spans="1:10" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C16" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E16" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G16" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16" t="s">
+      <c r="H16" s="12"/>
+      <c r="I16" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="14" t="s">
+    <row r="17" spans="1:9" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E17" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G17" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H17" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I17" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="14" t="s">
+    <row r="18" spans="1:9" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D18" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E18" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F18" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G18" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16" t="s">
+      <c r="H18" s="12"/>
+      <c r="I18" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="14" t="s">
+    <row r="19" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E19" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F19" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G19" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H19" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I19" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="14" t="s">
+    <row r="20" spans="1:9" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B20" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C20" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D20" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E20" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F20" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G20" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16" t="s">
+      <c r="H20" s="12"/>
+      <c r="I20" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="14" t="s">
+    <row r="21" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E21" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F21" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G21" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16" t="s">
+      <c r="H21" s="12"/>
+      <c r="I21" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="14" t="s">
+    <row r="22" spans="1:9" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B22" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C22" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D22" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E22" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F22" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G22" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H22" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I22" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="14" t="s">
+    <row r="23" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D23" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E23" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G23" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16" t="s">
+      <c r="H23" s="12"/>
+      <c r="I23" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="14" t="s">
+    <row r="24" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C24" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E24" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F24" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G24" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16" t="s">
+      <c r="H24" s="12"/>
+      <c r="I24" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="14" t="s">
+    <row r="25" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B25" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E25" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F25" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G25" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H25" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I25" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="14" t="s">
+    <row r="26" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B26" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C26" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D26" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E26" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F26" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G26" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="16" t="s">
+      <c r="H26" s="12"/>
+      <c r="I26" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="14" t="s">
+    <row r="27" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B27" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C27" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D27" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E27" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F27" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G27" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="16" t="s">
+      <c r="H27" s="12"/>
+      <c r="I27" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="14" t="s">
+    <row r="28" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B28" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C28" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D28" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E28" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F28" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G28" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="16" t="s">
+      <c r="H28" s="12"/>
+      <c r="I28" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="14" t="s">
+    <row r="29" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B29" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D29" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E29" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F29" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G29" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="16" t="s">
+      <c r="H29" s="12"/>
+      <c r="I29" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="14" t="s">
+    <row r="30" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B30" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D30" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E30" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F30" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G30" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H30" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="I30" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="14" t="s">
+    <row r="31" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B31" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D31" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E31" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F31" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G31" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="16" t="s">
+      <c r="H31" s="12"/>
+      <c r="I31" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="47" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
+    <row r="32" spans="1:9" ht="47" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B32" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C32" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D32" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15" t="s">
+      <c r="E32" s="12"/>
+      <c r="F32" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G32" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="16" t="s">
+      <c r="H32" s="12"/>
+      <c r="I32" s="13" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I31">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I2:I32">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I31">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+  <conditionalFormatting sqref="I3:I32">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>"Default"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I31" xr:uid="{6F69B301-4925-44EA-A8B6-F82B76E36D30}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I32" xr:uid="{6F69B301-4925-44EA-A8B6-F82B76E36D30}">
       <formula1>"Not Executed,PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3895,24 +6190,1240 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F52083-4F3D-44DB-B858-864F598BC2B4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="25" workbookViewId="0">
+      <selection sqref="A1:XFD8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.6328125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="41" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.90625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.90625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6328125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="50.6328125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="60.6328125" style="25" customWidth="1"/>
+    <col min="8" max="11" width="30.6328125" style="25" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:11" ht="24" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="24" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" s="33" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="78.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="1:11" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="26"/>
+    </row>
+    <row r="13" spans="1:11" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="26"/>
+    </row>
+    <row r="14" spans="1:11" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="1:11" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="63" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="63" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="H35" s="12"/>
+      <c r="I35" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="J3:J8 K11:K14 J11:J35">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+      <formula>"Not Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J8 K11:K14">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J35">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"Default"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"Not Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J8 K11:K14 J11:J35" xr:uid="{2BF0E724-EC48-409F-ADA4-417EDDD61666}">
+      <formula1>"Not Executed,PASS,FAIL"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D149986-1BEC-4EAD-BEB8-860585462811}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="52" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.1796875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.90625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.08984375" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.6328125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="13" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" ht="24" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10" s="33" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="28"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="28"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="28"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="28"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="28"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="28"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="28"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="28"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="28"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="28"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="28"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="28"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="28"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="28"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="28"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J3:J8">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"Not Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J8">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J8" xr:uid="{DF9BF969-6E47-47F0-AE8E-1764CDEDF07A}">
+      <formula1>"Not Executed,PASS,FAIL"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Guru99/3 - Design & Execution/TC_V2.xlsx
+++ b/Guru99/3 - Design & Execution/TC_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru99\3 - Design &amp; Execution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D584BE-A8B0-49A1-AB64-EACF004ACF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A936B8-61E4-4CA7-A85D-D2D432780173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,8 @@
     <sheet name="New customer" sheetId="2" r:id="rId3"/>
     <sheet name="Edit customer" sheetId="4" r:id="rId4"/>
     <sheet name="Delete customer" sheetId="5" r:id="rId5"/>
+    <sheet name="New account" sheetId="6" r:id="rId6"/>
+    <sheet name="Mini statment" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="352">
   <si>
     <t>ID</t>
   </si>
@@ -1057,9 +1059,6 @@
     <t xml:space="preserve">1 - Verify Manager can access Edit Customer form (Sub-Suite)								</t>
   </si>
   <si>
-    <t>Verify manager can access edit customer form</t>
-  </si>
-  <si>
     <t>Verify with valid ID</t>
   </si>
   <si>
@@ -1246,13 +1245,6 @@
   <si>
     <t>Verify manager can
 Edit_Customer info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) website is opened
-2) manager previosly logedin
-3) edit page is opened after pass edit form
-4) customer already have an account
-</t>
   </si>
   <si>
     <t>Verify Edit customer address with valid data</t>
@@ -1522,13 +1514,108 @@
   </si>
   <si>
     <t>message appears to the user tell him the customer deleted successfully</t>
+  </si>
+  <si>
+    <t>Verify Add new account module (Suite)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Verify Manager can add new account to existing customer  (Sub-Suite)								</t>
+  </si>
+  <si>
+    <t>TC_account_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Manager can add new account to existing customer								</t>
+  </si>
+  <si>
+    <t>TC_account_002</t>
+  </si>
+  <si>
+    <t>TC_account_003</t>
+  </si>
+  <si>
+    <t>TC_account_004</t>
+  </si>
+  <si>
+    <t>TC_account_005</t>
+  </si>
+  <si>
+    <t>1) website is opened
+2) Previously manager loged in
+3) customer email is previously created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) website is opened
+2) manager previosly logedin
+3) edit page is opened after pass edit form
+4) customer already have an email
+</t>
+  </si>
+  <si>
+    <t>TC_statment_001</t>
+  </si>
+  <si>
+    <t>TC_statment_002</t>
+  </si>
+  <si>
+    <t>TC_statment_003</t>
+  </si>
+  <si>
+    <t>TC_statment_004</t>
+  </si>
+  <si>
+    <t>TC_statment_005</t>
+  </si>
+  <si>
+    <t>Verify see mini statment module (Suite)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Verify Manager can see mini statments of existing customer accounts  (Sub-Suite)								</t>
+  </si>
+  <si>
+    <t>Verify Manager can see mini statments of existing customer accounts</t>
+  </si>
+  <si>
+    <t>Verify with ID blank field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id =  </t>
+  </si>
+  <si>
+    <t>1) website is opened
+2) Previously manager loged in
+3) customer account is created</t>
+  </si>
+  <si>
+    <t>minin statement successfully appears</t>
+  </si>
+  <si>
+    <t>error message appears that tell the user that ID can not be blank</t>
+  </si>
+  <si>
+    <t>TC_account_006</t>
+  </si>
+  <si>
+    <t>Verify with blank ID field</t>
+  </si>
+  <si>
+    <t>error message appears that tell the user that ID field can not be blank</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Choose Module</t>
+  </si>
+  <si>
+    <t>New Customer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1589,8 +1676,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1628,6 +1722,24 @@
     <fill>
       <patternFill patternType="mediumGray">
         <bgColor theme="9" tint="-0.24994659260841701"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1732,7 +1844,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1787,21 +1899,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1825,13 +1922,91 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Style 1" xfId="1" xr:uid="{48540A74-5A38-46CE-A885-A7DEB07E9381}"/>
     <cellStyle name="Style 2" xfId="2" xr:uid="{C54BD104-D706-4CC8-B1AF-F972C2684223}"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="80">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1884,6 +2059,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1929,6 +2124,136 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2173,6 +2498,31 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2235,10 +2585,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2346,140 +2696,56 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2497,8 +2763,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2509,50 +2776,48 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="95000"/>
-                      <a:alpha val="54000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Dashboard!$A$6:$A$9</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Dashboard!$A$7:$A$9</c:f>
+              <c:f>Dashboard!$A$15:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Total TC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>PASS</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Fail</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Not Executed</c:v>
                 </c:pt>
               </c:strCache>
@@ -2560,52 +2825,181 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Dashboard!$B$6:$B$9</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Dashboard!$B$7:$B$9</c:f>
+              <c:f>Dashboard!$B$15:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:categoryFilterExceptions/>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-5FFE-4145-88E4-CC645F35BA14}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1428859440"/>
+        <c:axId val="406157072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1428859440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406157072"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="406157072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1428859440"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2613,17 +3007,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.76789160798061307"/>
-          <c:y val="0.38187419183083593"/>
-          <c:w val="0.23210849368647518"/>
-          <c:h val="0.39255339024548097"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2636,11 +3020,12 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr rtl="0">
+          <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2657,28 +3042,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2778,6 +3152,11 @@
                 </a:innerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D6C6-4F4F-ACCC-9A6E69E6F573}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2805,6 +3184,11 @@
                 </a:innerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D6C6-4F4F-ACCC-9A6E69E6F573}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2832,6 +3216,11 @@
                 </a:innerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D6C6-4F4F-ACCC-9A6E69E6F573}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2859,6 +3248,11 @@
                 </a:innerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D6C6-4F4F-ACCC-9A6E69E6F573}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2942,7 +3336,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>77</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>32</c:v>
@@ -2951,7 +3345,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3053,6 +3447,368 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$A$6:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Total TC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PASS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fail</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Not Executed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$6:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2211-49B1-A7E3-5205B1B75480}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1421081776"/>
+        <c:axId val="1405481183"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1421081776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1405481183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1405481183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1421081776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3133,40 +3889,79 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="303">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea>
     <cs:lnRef idx="0"/>
@@ -3176,36 +3971,29 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3224,6 +4012,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3232,35 +4028,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3272,15 +4078,18 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3293,10 +4102,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3312,28 +4121,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3342,13 +4153,14 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3357,17 +4169,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3376,13 +4188,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3394,22 +4207,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3421,16 +4247,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3439,17 +4266,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3458,16 +4285,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3476,8 +4304,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3487,32 +4316,51 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
   </cs:plotArea>
   <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:plotArea3D>
   <cs:seriesAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3525,14 +4373,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3543,20 +4391,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3565,7 +4406,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -3580,8 +4421,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3591,19 +4433,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3612,10 +4455,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3623,8 +4478,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4163,20 +5031,496 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>433612</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171904</xdr:rowOff>
+      <xdr:colOff>465362</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>178254</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4206,15 +5550,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>574675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4239,6 +5583,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>517525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C085170D-35BE-78D7-3382-51682CF300A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4246,15 +5626,31 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7208EBF7-A7E1-42D0-B212-AF2B7CCC1922}" name="Table1" displayName="Table1" ref="A2:B9" totalsRowShown="0" headerRowCellStyle="Style 2" dataCellStyle="Style 2">
   <autoFilter ref="A2:B9" xr:uid="{7208EBF7-A7E1-42D0-B212-AF2B7CCC1922}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B72A5ACC-2E50-4F97-A328-3FEEF764509B}" name="#" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{7CBB9464-FC05-4E8B-982E-2A12E8025BC6}" name="Data" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Style 2"/>
+    <tableColumn id="1" xr3:uid="{B72A5ACC-2E50-4F97-A328-3FEEF764509B}" name="#" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{7CBB9464-FC05-4E8B-982E-2A12E8025BC6}" name="Data" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Style 2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF1DA6A8-0406-40EC-847E-90AA70E693C4}" name="Table24" displayName="Table24" ref="A11:J17" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FB2D494-5F6C-4484-96B5-FE85546882D2}" name="Table2" displayName="Table2" ref="A13:B18" totalsRowShown="0" headerRowDxfId="51" headerRowCellStyle="Style 1">
+  <autoFilter ref="A13:B18" xr:uid="{6FB2D494-5F6C-4484-96B5-FE85546882D2}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{94E04D20-98AB-4B29-A282-2928C8B5B08B}" name="#" dataDxfId="1" dataCellStyle="Style 1"/>
+    <tableColumn id="2" xr3:uid="{012589E2-0609-44C8-95AA-C8C4D9A4EFF9}" name="Data" dataDxfId="0" dataCellStyle="Style 1">
+      <calculatedColumnFormula>B11</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF1DA6A8-0406-40EC-847E-90AA70E693C4}" name="Table24" displayName="Table24" ref="A11:J17" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
   <autoFilter ref="A11:J17" xr:uid="{CF1DA6A8-0406-40EC-847E-90AA70E693C4}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4271,23 +5667,23 @@
     <sortCondition ref="I11:I17"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3784502C-18CF-41CC-9169-218E5E27D77D}" name="ID" dataDxfId="55" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{5A760E70-50B6-4936-8A81-202B446C838B}" name="Test Scenario" dataDxfId="54" dataCellStyle="Style 2"/>
-    <tableColumn id="3" xr3:uid="{3105FEE7-F800-4A41-8C70-539055D79DF8}" name="Test Case" dataDxfId="53" dataCellStyle="Style 2"/>
-    <tableColumn id="4" xr3:uid="{17F3EF40-0ABC-40FD-8AAD-25272842DA14}" name="Precondition" dataDxfId="52" dataCellStyle="Style 2"/>
-    <tableColumn id="5" xr3:uid="{E8A17FF4-A33A-486C-94E5-39769F7E53E2}" name="Test Data" dataDxfId="51" dataCellStyle="Style 2"/>
-    <tableColumn id="6" xr3:uid="{323B91BA-E18F-4ECF-9C24-0DD4448CCFF6}" name="Test Steps" dataDxfId="50" dataCellStyle="Style 2"/>
-    <tableColumn id="7" xr3:uid="{F6243F6B-BDD4-4668-B403-E817CA6926E7}" name="Expected" dataDxfId="49" dataCellStyle="Style 2"/>
-    <tableColumn id="8" xr3:uid="{11930CB6-CE93-4E81-9284-3985ED7DF1C1}" name="Actual" dataDxfId="48" dataCellStyle="Style 2"/>
-    <tableColumn id="10" xr3:uid="{49C1EF10-7281-4C78-A928-5A561D4DE6A5}" name="Priority" dataDxfId="46" dataCellStyle="Style 2"/>
-    <tableColumn id="9" xr3:uid="{0EB40056-6AA7-48E7-A87E-9D3D000F5424}" name="Status" dataDxfId="47" dataCellStyle="Style 1"/>
+    <tableColumn id="1" xr3:uid="{3784502C-18CF-41CC-9169-218E5E27D77D}" name="ID" dataDxfId="73" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{5A760E70-50B6-4936-8A81-202B446C838B}" name="Test Scenario" dataDxfId="72" dataCellStyle="Style 2"/>
+    <tableColumn id="3" xr3:uid="{3105FEE7-F800-4A41-8C70-539055D79DF8}" name="Test Case" dataDxfId="71" dataCellStyle="Style 2"/>
+    <tableColumn id="4" xr3:uid="{17F3EF40-0ABC-40FD-8AAD-25272842DA14}" name="Precondition" dataDxfId="70" dataCellStyle="Style 2"/>
+    <tableColumn id="5" xr3:uid="{E8A17FF4-A33A-486C-94E5-39769F7E53E2}" name="Test Data" dataDxfId="69" dataCellStyle="Style 2"/>
+    <tableColumn id="6" xr3:uid="{323B91BA-E18F-4ECF-9C24-0DD4448CCFF6}" name="Test Steps" dataDxfId="68" dataCellStyle="Style 2"/>
+    <tableColumn id="7" xr3:uid="{F6243F6B-BDD4-4668-B403-E817CA6926E7}" name="Expected" dataDxfId="67" dataCellStyle="Style 2"/>
+    <tableColumn id="8" xr3:uid="{11930CB6-CE93-4E81-9284-3985ED7DF1C1}" name="Actual" dataDxfId="66" dataCellStyle="Style 2"/>
+    <tableColumn id="10" xr3:uid="{49C1EF10-7281-4C78-A928-5A561D4DE6A5}" name="Priority" dataDxfId="65" dataCellStyle="Style 2"/>
+    <tableColumn id="9" xr3:uid="{0EB40056-6AA7-48E7-A87E-9D3D000F5424}" name="Status" dataDxfId="64" dataCellStyle="Style 1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{055B3D66-4363-45FC-870D-81B4816EA226}" name="Table245" displayName="Table245" ref="A3:J9" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{055B3D66-4363-45FC-870D-81B4816EA226}" name="Table245" displayName="Table245" ref="A3:J9" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
   <autoFilter ref="A3:J9" xr:uid="{055B3D66-4363-45FC-870D-81B4816EA226}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4304,16 +5700,16 @@
     <sortCondition ref="I11:I17"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{490ED60D-B8A5-4191-BC26-B6354824686C}" name="ID" dataDxfId="43" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{B56BF91F-C7D9-4050-B849-9236EEDCACBC}" name="Test Scenario" dataDxfId="42" dataCellStyle="Style 2"/>
-    <tableColumn id="3" xr3:uid="{39B7B130-5AFE-4189-A4C3-073F436E5FC5}" name="Test Case" dataDxfId="41" dataCellStyle="Style 2"/>
-    <tableColumn id="4" xr3:uid="{9752297E-8369-4785-A0E4-A4C176425562}" name="Precondition" dataDxfId="40" dataCellStyle="Style 2"/>
-    <tableColumn id="5" xr3:uid="{C718113A-5259-45B0-B023-1F6CEF3B7A64}" name="Test Data" dataDxfId="39" dataCellStyle="Style 2"/>
-    <tableColumn id="6" xr3:uid="{46F14A98-4C7F-49A5-9BA9-7EB42A6EEF84}" name="Test Steps" dataDxfId="38" dataCellStyle="Style 2"/>
-    <tableColumn id="7" xr3:uid="{FC55A5D5-A5D7-40B8-8BBE-671A13FF1C15}" name="Expected" dataDxfId="37" dataCellStyle="Style 2"/>
-    <tableColumn id="8" xr3:uid="{478FFA4B-BD87-44B7-8507-3C6C558FC75A}" name="Actual" dataDxfId="36" dataCellStyle="Style 2"/>
-    <tableColumn id="10" xr3:uid="{470D9E79-D922-4F1D-BCB4-F8568775ED56}" name="Priority" dataDxfId="35" dataCellStyle="Style 2"/>
-    <tableColumn id="9" xr3:uid="{C0729C5C-2137-4868-8B15-44DA6DAFAFD1}" name="Status" dataDxfId="34" dataCellStyle="Style 1"/>
+    <tableColumn id="1" xr3:uid="{490ED60D-B8A5-4191-BC26-B6354824686C}" name="ID" dataDxfId="61" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{B56BF91F-C7D9-4050-B849-9236EEDCACBC}" name="Test Scenario" dataDxfId="60" dataCellStyle="Style 2"/>
+    <tableColumn id="3" xr3:uid="{39B7B130-5AFE-4189-A4C3-073F436E5FC5}" name="Test Case" dataDxfId="59" dataCellStyle="Style 2"/>
+    <tableColumn id="4" xr3:uid="{9752297E-8369-4785-A0E4-A4C176425562}" name="Precondition" dataDxfId="58" dataCellStyle="Style 2"/>
+    <tableColumn id="5" xr3:uid="{C718113A-5259-45B0-B023-1F6CEF3B7A64}" name="Test Data" dataDxfId="57" dataCellStyle="Style 2"/>
+    <tableColumn id="6" xr3:uid="{46F14A98-4C7F-49A5-9BA9-7EB42A6EEF84}" name="Test Steps" dataDxfId="56" dataCellStyle="Style 2"/>
+    <tableColumn id="7" xr3:uid="{FC55A5D5-A5D7-40B8-8BBE-671A13FF1C15}" name="Expected" dataDxfId="55" dataCellStyle="Style 2"/>
+    <tableColumn id="8" xr3:uid="{478FFA4B-BD87-44B7-8507-3C6C558FC75A}" name="Actual" dataDxfId="54" dataCellStyle="Style 2"/>
+    <tableColumn id="10" xr3:uid="{470D9E79-D922-4F1D-BCB4-F8568775ED56}" name="Priority" dataDxfId="53" dataCellStyle="Style 2"/>
+    <tableColumn id="9" xr3:uid="{C0729C5C-2137-4868-8B15-44DA6DAFAFD1}" name="Status" dataDxfId="52" dataCellStyle="Style 1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4582,10 +5978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F5E454-6D40-4766-A30A-D6B7E7603A7B}">
-  <dimension ref="A2:B10"/>
+  <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4631,8 +6027,8 @@
         <v>22</v>
       </c>
       <c r="B6" s="1">
-        <f>SUM(COUNTIF('Login &amp; Logout'!A3:A81, "*TC*"),COUNTIF('New customer'!A:A, "*TC*"),COUNTIF('Edit customer'!A:A, "*TC*"),COUNTIF('Delete customer'!A:A, "*TC*"))</f>
-        <v>77</v>
+        <f>SUM(COUNTIF('Login &amp; Logout'!A3:A81, "*TC*"),COUNTIF('New customer'!A:A, "*TC*"),COUNTIF('Edit customer'!A:A, "*TC*"),COUNTIF('Delete customer'!A:A, "*TC*"),COUNTIF('New account'!A:J, "*TC*"),COUNTIF('Mini statment'!A:J, "*TC*"))</f>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4658,16 +6054,86 @@
         <v>65</v>
       </c>
       <c r="B9" s="1">
-        <f>SUM(COUNTIF('Login &amp; Logout'!J3:J17,"not executed"),COUNTIF('New customer'!A:J,"not executed"),COUNTIF('Edit customer'!A:J,"not executed"),COUNTIF('Delete customer'!A:J,"not executed"))</f>
-        <v>35</v>
+        <f>SUM(COUNTIF('Login &amp; Logout'!J3:J17,"not executed"),COUNTIF('New customer'!A:J,"not executed"),COUNTIF('Edit customer'!A:J,"not executed"),COUNTIF('Delete customer'!A:J,"not executed"),COUNTIF('New account'!A:J, "not executed"),COUNTIF('Mini statment'!A:J, "not executed"))</f>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" s="37" t="str">
+        <f t="shared" ref="B14:B18" si="0">B11</f>
+        <v>New Customer</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="37">
+        <f>IF(B14="New Customer",COUNTIF('New customer'!A:A,"*TC*"),IF(B14="Log",COUNTIF('Login &amp; Logout'!A:A,"*TC*"),IF(B14="Edit Customer",COUNTIF('Edit customer'!A:A,"*TC*"),0)))</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="37">
+        <f>IF(B14="New Customer",COUNTIF('New customer'!I:I,"PASS"),IF(B14="Log",COUNTIF('Login &amp; Logout'!J:J,"PASS"),IF(B14="Edit Customer",COUNTIF('Edit customer'!J:J,"PASS"),0)))</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="37">
+        <f>IF(B14="New Customer",COUNTIF('New customer'!I:I,"Fail"),IF(B14="Log",COUNTIF('Login &amp; Logout'!J:J,"Fail"),IF(B14="Edit Customer",COUNTIF('Edit customer'!J:J,"Fail"),0)))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="37">
+        <f>IF(B14="New Customer",COUNTIF('New customer'!I:I,"Not Executed"),IF(B14="Log",COUNTIF('Login &amp; Logout'!J:J,"Not Executed"),IF(B14="Edit Customer",COUNTIF('Edit customer'!J:J,"Not Executed"),0)))</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B11" xr:uid="{714BD288-F0AA-464C-8AA8-06F6C0479280}">
+      <formula1>"Choose, Log, New Customer,Edit Customer"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B15:B18" calculatedColumn="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4677,7 +6143,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" topLeftCell="A5" colorId="8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView defaultGridColor="0" topLeftCell="A12" colorId="8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -4697,36 +6163,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="2">
         <f>COUNTIF('Login &amp; Logout'!J3:J17,"pass")</f>
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
@@ -4951,18 +6417,18 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
@@ -5204,51 +6670,51 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I18:I1048576 J11:J17">
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+  <conditionalFormatting sqref="J3:J9">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="12" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18 J12:J17">
-    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
-      <formula>"fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18 J13:J17">
-    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
-      <formula>"Default"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J9">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
-      <formula>"Not Executed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J9">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="5" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J9">
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
+      <formula>"Default"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J17 I18:I1048576">
+    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
+      <formula>"Not Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:J17 I18">
+    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:J17 I18">
+    <cfRule type="cellIs" dxfId="39" priority="16" operator="equal">
       <formula>"Default"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5268,32 +6734,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182AED3B-5B54-47CA-9351-D206B6473FEB}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="32" zoomScaleNormal="35" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView showGridLines="0" zoomScale="44" zoomScaleNormal="32" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="9" width="35.6328125" customWidth="1"/>
+    <col min="1" max="9" width="35.6328125" style="20" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:10" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+    </row>
+    <row r="2" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -5322,7 +6788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>47</v>
       </c>
@@ -5351,7 +6817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>54</v>
       </c>
@@ -5378,7 +6844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>57</v>
       </c>
@@ -5405,7 +6871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>59</v>
       </c>
@@ -5434,7 +6900,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
@@ -5461,7 +6927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>63</v>
       </c>
@@ -5490,7 +6956,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>72</v>
       </c>
@@ -5519,7 +6985,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>75</v>
       </c>
@@ -5548,7 +7014,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>78</v>
       </c>
@@ -5577,7 +7043,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>85</v>
       </c>
@@ -5604,7 +7070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>86</v>
       </c>
@@ -5631,7 +7097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>87</v>
       </c>
@@ -5658,7 +7124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>90</v>
       </c>
@@ -5685,7 +7151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>93</v>
       </c>
@@ -5712,7 +7178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>96</v>
       </c>
@@ -5741,7 +7207,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>99</v>
       </c>
@@ -5768,7 +7234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>102</v>
       </c>
@@ -5797,7 +7263,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
         <v>104</v>
       </c>
@@ -5824,7 +7290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
         <v>107</v>
       </c>
@@ -5851,7 +7317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
         <v>110</v>
       </c>
@@ -5880,7 +7346,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
         <v>115</v>
       </c>
@@ -5907,7 +7373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
         <v>126</v>
       </c>
@@ -5934,7 +7400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
         <v>130</v>
       </c>
@@ -5963,7 +7429,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
         <v>134</v>
       </c>
@@ -5990,7 +7456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
         <v>138</v>
       </c>
@@ -6017,7 +7483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
         <v>141</v>
       </c>
@@ -6044,7 +7510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
         <v>143</v>
       </c>
@@ -6071,7 +7537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
         <v>147</v>
       </c>
@@ -6100,7 +7566,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
         <v>151</v>
       </c>
@@ -6154,27 +7620,27 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:I32">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I32">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>"Default"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6192,107 +7658,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F52083-4F3D-44DB-B858-864F598BC2B4}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="25" workbookViewId="0">
-      <selection sqref="A1:XFD8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.6328125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="41" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.90625" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.90625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6328125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="50.6328125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="60.6328125" style="25" customWidth="1"/>
-    <col min="8" max="11" width="30.6328125" style="25" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="25"/>
+    <col min="1" max="1" width="30.6328125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="41" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.90625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.90625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6328125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="50.6328125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="60.6328125" style="20" customWidth="1"/>
+    <col min="8" max="11" width="30.6328125" style="20" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:11" ht="24" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-    </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="32" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" s="28" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31" t="s">
+      <c r="B4" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>173</v>
       </c>
       <c r="J4" s="13" t="s">
@@ -6300,176 +7766,176 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29" t="s">
+      <c r="D5" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31" t="s">
-        <v>208</v>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26" t="s">
+        <v>207</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29" t="s">
+      <c r="A6" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31" t="s">
-        <v>208</v>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26" t="s">
+        <v>207</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29" t="s">
+      <c r="A7" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31" t="s">
-        <v>208</v>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26" t="s">
+        <v>207</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29" t="s">
+      <c r="A8" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30" t="s">
+      <c r="F8" s="25"/>
+      <c r="G8" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26" t="s">
         <v>206</v>
-      </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31" t="s">
-        <v>207</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="24" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="32" t="s">
+      <c r="A9" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:11" s="28" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="78.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>241</v>
-      </c>
       <c r="D11" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>242</v>
-      </c>
       <c r="F11" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="3" t="s">
@@ -6478,102 +7944,102 @@
       <c r="J11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="26"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J12" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="26"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J13" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="26"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14" spans="1:11" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K14" s="26"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:11" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>65</v>
@@ -6581,23 +8047,23 @@
     </row>
     <row r="16" spans="1:11" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J16" s="13" t="s">
         <v>65</v>
@@ -6605,23 +8071,23 @@
     </row>
     <row r="17" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>65</v>
@@ -6629,23 +8095,23 @@
     </row>
     <row r="18" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>65</v>
@@ -6653,23 +8119,23 @@
     </row>
     <row r="19" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>65</v>
@@ -6677,23 +8143,23 @@
     </row>
     <row r="20" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J20" s="13" t="s">
         <v>65</v>
@@ -6701,23 +8167,23 @@
     </row>
     <row r="21" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J21" s="13" t="s">
         <v>65</v>
@@ -6725,23 +8191,23 @@
     </row>
     <row r="22" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>65</v>
@@ -6749,23 +8215,23 @@
     </row>
     <row r="23" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>65</v>
@@ -6773,23 +8239,23 @@
     </row>
     <row r="24" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>65</v>
@@ -6797,23 +8263,23 @@
     </row>
     <row r="25" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>65</v>
@@ -6821,23 +8287,23 @@
     </row>
     <row r="26" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>65</v>
@@ -6845,23 +8311,23 @@
     </row>
     <row r="27" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>65</v>
@@ -6869,23 +8335,23 @@
     </row>
     <row r="28" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>65</v>
@@ -6893,23 +8359,23 @@
     </row>
     <row r="29" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>65</v>
@@ -6917,23 +8383,23 @@
     </row>
     <row r="30" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J30" s="13" t="s">
         <v>65</v>
@@ -6941,23 +8407,23 @@
     </row>
     <row r="31" spans="1:10" ht="63" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J31" s="13" t="s">
         <v>65</v>
@@ -6965,23 +8431,23 @@
     </row>
     <row r="32" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>65</v>
@@ -6989,25 +8455,25 @@
     </row>
     <row r="33" spans="1:10" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J33" s="13" t="s">
         <v>65</v>
@@ -7015,23 +8481,23 @@
     </row>
     <row r="34" spans="1:10" ht="63" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J34" s="13" t="s">
         <v>65</v>
@@ -7039,10 +8505,10 @@
     </row>
     <row r="35" spans="1:10" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>157</v>
@@ -7053,11 +8519,11 @@
         <v>158</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J35" s="13" t="s">
         <v>65</v>
@@ -7071,45 +8537,45 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="J3:J8 K11:K14 J11:J35">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+  <conditionalFormatting sqref="J3:J8 K11:K14">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="11" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J8 K11:K14">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J10:J35">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+      <formula>"Not Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J11:J35">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
       <formula>"Default"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
-      <formula>"Not Executed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7125,275 +8591,269 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D149986-1BEC-4EAD-BEB8-860585462811}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView zoomScale="52" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.90625" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.08984375" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.6328125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="7.81640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6328125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="13" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="25"/>
+    <col min="1" max="1" width="15.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.90625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.90625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.6328125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="13" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:10" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+    </row>
+    <row r="3" spans="1:10" s="28" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" ht="24" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-    </row>
-    <row r="3" spans="1:10" s="33" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
-        <v>318</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31" t="s">
+      <c r="B4" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>173</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="29" t="s">
+    <row r="5" spans="1:10" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31" t="s">
-        <v>208</v>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26" t="s">
+        <v>207</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="29" t="s">
+    <row r="6" spans="1:10" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31" t="s">
-        <v>208</v>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26" t="s">
+        <v>207</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="29" t="s">
+    <row r="7" spans="1:10" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31" t="s">
-        <v>208</v>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26" t="s">
+        <v>207</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="29" t="s">
+    <row r="8" spans="1:10" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30" t="s">
+      <c r="F8" s="25"/>
+      <c r="G8" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26" t="s">
         <v>206</v>
-      </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31" t="s">
-        <v>207</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="28"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="28"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="28"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="28"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="28"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="28"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="28"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="28"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="28"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="28"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="28"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="28"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="28"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="28"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="28"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="28"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="28"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="28"/>
+    <row r="9" spans="1:10" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+    </row>
+    <row r="11" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23"/>
+    </row>
+    <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+    </row>
+    <row r="14" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+    </row>
+    <row r="16" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+    </row>
+    <row r="17" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+    </row>
+    <row r="18" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23"/>
+    </row>
+    <row r="19" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23"/>
+    </row>
+    <row r="20" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+    </row>
+    <row r="21" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+    </row>
+    <row r="22" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23"/>
+    </row>
+    <row r="23" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23"/>
+    </row>
+    <row r="24" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
+    </row>
+    <row r="25" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+    </row>
+    <row r="26" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23"/>
+    </row>
+    <row r="27" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7401,21 +8861,21 @@
     <mergeCell ref="A2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J8">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J8">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7426,4 +8886,511 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F80D4A-4BA5-4F7E-AFFA-5E7E5B272616}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView zoomScale="43" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="50.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="50.6328125" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" ht="24" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+    </row>
+    <row r="3" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="70" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="70" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="70" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="70" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="50" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="70" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="J3:J9">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+      <formula>"Not Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J9">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J9" xr:uid="{732FFD07-732A-48E2-83E1-BD3861594277}">
+      <formula1>"Not Executed,PASS,FAIL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFD557E-1D4E-45A0-B33E-AFBF6F65C0A5}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView zoomScale="51" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="10" width="50.6328125" style="20" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" ht="24" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+    </row>
+    <row r="3" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="70" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="70" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="70" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="70" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="70" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J3:J4">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>"Not Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J8">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"Not Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J8">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J8" xr:uid="{5595EE0B-BE27-49DC-B7CA-3118C910D25B}">
+      <formula1>"Not Executed,PASS,FAIL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Guru99/3 - Design & Execution/TC_V2.xlsx
+++ b/Guru99/3 - Design & Execution/TC_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru99\3 - Design &amp; Execution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A936B8-61E4-4CA7-A85D-D2D432780173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74A2073-6695-426F-A9D2-AA1BA9E0D5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="359">
   <si>
     <t>ID</t>
   </si>
@@ -1610,12 +1610,33 @@
   <si>
     <t>New Customer</t>
   </si>
+  <si>
+    <t>Full Project</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Specific Module</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1678,13 +1699,27 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Agency FB"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="0"/>
+      <name val="Agency FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Agency FB"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1726,24 +1761,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor theme="2" tint="-0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1836,6 +1865,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1844,7 +1953,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1937,17 +2046,44 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1955,108 +2091,7 @@
     <cellStyle name="Style 1" xfId="1" xr:uid="{48540A74-5A38-46CE-A885-A7DEB07E9381}"/>
     <cellStyle name="Style 2" xfId="2" xr:uid="{C54BD104-D706-4CC8-B1AF-F972C2684223}"/>
   </cellStyles>
-  <dxfs count="80">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="78">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2498,6 +2533,145 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="double">
+          <color auto="1"/>
+        </left>
+        <right style="double">
+          <color auto="1"/>
+        </right>
+        <top style="double">
+          <color auto="1"/>
+        </top>
+        <bottom style="double">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="double">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="double">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.89999084444715716"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2665,7 +2839,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{AB4FE4A9-2E76-4B1F-81EF-FEC07E8E0282}">
+      <tableStyleElement type="wholeTable" dxfId="44"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFC49500"/>
@@ -2710,16 +2888,22 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -2737,13 +2921,42 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2763,9 +2976,8 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2788,14 +3000,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2805,7 +3016,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$A$15:$A$18</c:f>
+              <c:f>Dashboard!$K$5:$K$8</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2825,7 +3036,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$B$15:$B$18</c:f>
+              <c:f>Dashboard!$L$5:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2870,31 +3081,17 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2906,11 +3103,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2922,6 +3118,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="406157072"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2938,9 +3135,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2954,14 +3151,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2972,9 +3163,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2986,20 +3176,11 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1428859440"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:pattFill prst="ltDnDiag">
-          <a:fgClr>
-            <a:schemeClr val="dk1">
-              <a:lumMod val="15000"/>
-              <a:lumOff val="85000"/>
-            </a:schemeClr>
-          </a:fgClr>
-          <a:bgClr>
-            <a:schemeClr val="lt1"/>
-          </a:bgClr>
-        </a:pattFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3023,9 +3204,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3042,17 +3222,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -3311,7 +3502,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$A$6:$A$9</c:f>
+              <c:f>Dashboard!$B$7:$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3331,7 +3522,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$B$6:$B$9</c:f>
+              <c:f>Dashboard!$C$7:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3462,6 +3653,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3588,7 +3810,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$A$6:$A$9</c:f>
+              <c:f>Dashboard!$B$7:$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3608,7 +3830,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$B$6:$B$9</c:f>
+              <c:f>Dashboard!$C$7:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3641,7 +3863,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="95"/>
+        <c:gapDepth val="95"/>
         <c:shape val="box"/>
         <c:axId val="1421081776"/>
         <c:axId val="1405481183"/>
@@ -3712,6 +3935,35 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3746,6 +3998,43 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3927,41 +4216,39 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="303">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea>
     <cs:lnRef idx="0"/>
@@ -3971,29 +4258,36 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4012,14 +4306,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -4028,45 +4314,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4078,18 +4354,15 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="15875">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4102,10 +4375,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4121,30 +4394,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4153,14 +4424,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4169,17 +4439,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4188,14 +4458,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4207,35 +4476,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4247,17 +4503,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -4266,17 +4521,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -4285,17 +4540,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4304,9 +4558,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4316,51 +4569,32 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
   </cs:plotArea>
   <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:plotArea3D>
   <cs:seriesAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4373,14 +4607,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4391,13 +4625,20 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4406,7 +4647,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -4421,9 +4662,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4433,20 +4673,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4455,22 +4694,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4478,21 +4705,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5511,16 +5725,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>465362</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>607401</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>178254</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8355</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66841</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5549,16 +5763,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>574675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>65004</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>116139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1668379</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>52138</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5585,16 +5799,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>517525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342064</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>73193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>183816</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>116974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5623,34 +5837,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7208EBF7-A7E1-42D0-B212-AF2B7CCC1922}" name="Table1" displayName="Table1" ref="A2:B9" totalsRowShown="0" headerRowCellStyle="Style 2" dataCellStyle="Style 2">
-  <autoFilter ref="A2:B9" xr:uid="{7208EBF7-A7E1-42D0-B212-AF2B7CCC1922}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7208EBF7-A7E1-42D0-B212-AF2B7CCC1922}" name="Table1" displayName="Table1" ref="B3:C10" totalsRowShown="0" headerRowCellStyle="Style 2" dataCellStyle="Style 2">
+  <autoFilter ref="B3:C10" xr:uid="{7208EBF7-A7E1-42D0-B212-AF2B7CCC1922}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B72A5ACC-2E50-4F97-A328-3FEEF764509B}" name="#" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{7CBB9464-FC05-4E8B-982E-2A12E8025BC6}" name="Data" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Style 2"/>
+    <tableColumn id="1" xr3:uid="{B72A5ACC-2E50-4F97-A328-3FEEF764509B}" name="#" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{7CBB9464-FC05-4E8B-982E-2A12E8025BC6}" name="Data" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Style 2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FB2D494-5F6C-4484-96B5-FE85546882D2}" name="Table2" displayName="Table2" ref="A13:B18" totalsRowShown="0" headerRowDxfId="51" headerRowCellStyle="Style 1">
-  <autoFilter ref="A13:B18" xr:uid="{6FB2D494-5F6C-4484-96B5-FE85546882D2}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FB2D494-5F6C-4484-96B5-FE85546882D2}" name="Table2" displayName="Table2" ref="K3:L8" headerRowDxfId="49" headerRowCellStyle="Style 1">
+  <autoFilter ref="K3:L8" xr:uid="{6FB2D494-5F6C-4484-96B5-FE85546882D2}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{94E04D20-98AB-4B29-A282-2928C8B5B08B}" name="#" dataDxfId="1" dataCellStyle="Style 1"/>
-    <tableColumn id="2" xr3:uid="{012589E2-0609-44C8-95AA-C8C4D9A4EFF9}" name="Data" dataDxfId="0" dataCellStyle="Style 1">
-      <calculatedColumnFormula>B11</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{94E04D20-98AB-4B29-A282-2928C8B5B08B}" name="#" totalsRowLabel="Total" dataDxfId="46" totalsRowDxfId="48" dataCellStyle="Style 1"/>
+    <tableColumn id="2" xr3:uid="{012589E2-0609-44C8-95AA-C8C4D9A4EFF9}" name="Data" totalsRowFunction="count" dataDxfId="45" totalsRowDxfId="47" dataCellStyle="Style 1">
+      <calculatedColumnFormula>F4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF1DA6A8-0406-40EC-847E-90AA70E693C4}" name="Table24" displayName="Table24" ref="A11:J17" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF1DA6A8-0406-40EC-847E-90AA70E693C4}" name="Table24" displayName="Table24" ref="A11:J17" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
   <autoFilter ref="A11:J17" xr:uid="{CF1DA6A8-0406-40EC-847E-90AA70E693C4}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5667,23 +5884,23 @@
     <sortCondition ref="I11:I17"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3784502C-18CF-41CC-9169-218E5E27D77D}" name="ID" dataDxfId="73" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{5A760E70-50B6-4936-8A81-202B446C838B}" name="Test Scenario" dataDxfId="72" dataCellStyle="Style 2"/>
-    <tableColumn id="3" xr3:uid="{3105FEE7-F800-4A41-8C70-539055D79DF8}" name="Test Case" dataDxfId="71" dataCellStyle="Style 2"/>
-    <tableColumn id="4" xr3:uid="{17F3EF40-0ABC-40FD-8AAD-25272842DA14}" name="Precondition" dataDxfId="70" dataCellStyle="Style 2"/>
-    <tableColumn id="5" xr3:uid="{E8A17FF4-A33A-486C-94E5-39769F7E53E2}" name="Test Data" dataDxfId="69" dataCellStyle="Style 2"/>
-    <tableColumn id="6" xr3:uid="{323B91BA-E18F-4ECF-9C24-0DD4448CCFF6}" name="Test Steps" dataDxfId="68" dataCellStyle="Style 2"/>
-    <tableColumn id="7" xr3:uid="{F6243F6B-BDD4-4668-B403-E817CA6926E7}" name="Expected" dataDxfId="67" dataCellStyle="Style 2"/>
-    <tableColumn id="8" xr3:uid="{11930CB6-CE93-4E81-9284-3985ED7DF1C1}" name="Actual" dataDxfId="66" dataCellStyle="Style 2"/>
-    <tableColumn id="10" xr3:uid="{49C1EF10-7281-4C78-A928-5A561D4DE6A5}" name="Priority" dataDxfId="65" dataCellStyle="Style 2"/>
-    <tableColumn id="9" xr3:uid="{0EB40056-6AA7-48E7-A87E-9D3D000F5424}" name="Status" dataDxfId="64" dataCellStyle="Style 1"/>
+    <tableColumn id="1" xr3:uid="{3784502C-18CF-41CC-9169-218E5E27D77D}" name="ID" dataDxfId="71" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{5A760E70-50B6-4936-8A81-202B446C838B}" name="Test Scenario" dataDxfId="70" dataCellStyle="Style 2"/>
+    <tableColumn id="3" xr3:uid="{3105FEE7-F800-4A41-8C70-539055D79DF8}" name="Test Case" dataDxfId="69" dataCellStyle="Style 2"/>
+    <tableColumn id="4" xr3:uid="{17F3EF40-0ABC-40FD-8AAD-25272842DA14}" name="Precondition" dataDxfId="68" dataCellStyle="Style 2"/>
+    <tableColumn id="5" xr3:uid="{E8A17FF4-A33A-486C-94E5-39769F7E53E2}" name="Test Data" dataDxfId="67" dataCellStyle="Style 2"/>
+    <tableColumn id="6" xr3:uid="{323B91BA-E18F-4ECF-9C24-0DD4448CCFF6}" name="Test Steps" dataDxfId="66" dataCellStyle="Style 2"/>
+    <tableColumn id="7" xr3:uid="{F6243F6B-BDD4-4668-B403-E817CA6926E7}" name="Expected" dataDxfId="65" dataCellStyle="Style 2"/>
+    <tableColumn id="8" xr3:uid="{11930CB6-CE93-4E81-9284-3985ED7DF1C1}" name="Actual" dataDxfId="64" dataCellStyle="Style 2"/>
+    <tableColumn id="10" xr3:uid="{49C1EF10-7281-4C78-A928-5A561D4DE6A5}" name="Priority" dataDxfId="63" dataCellStyle="Style 2"/>
+    <tableColumn id="9" xr3:uid="{0EB40056-6AA7-48E7-A87E-9D3D000F5424}" name="Status" dataDxfId="62" dataCellStyle="Style 1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{055B3D66-4363-45FC-870D-81B4816EA226}" name="Table245" displayName="Table245" ref="A3:J9" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{055B3D66-4363-45FC-870D-81B4816EA226}" name="Table245" displayName="Table245" ref="A3:J9" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
   <autoFilter ref="A3:J9" xr:uid="{055B3D66-4363-45FC-870D-81B4816EA226}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5700,16 +5917,16 @@
     <sortCondition ref="I11:I17"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{490ED60D-B8A5-4191-BC26-B6354824686C}" name="ID" dataDxfId="61" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{B56BF91F-C7D9-4050-B849-9236EEDCACBC}" name="Test Scenario" dataDxfId="60" dataCellStyle="Style 2"/>
-    <tableColumn id="3" xr3:uid="{39B7B130-5AFE-4189-A4C3-073F436E5FC5}" name="Test Case" dataDxfId="59" dataCellStyle="Style 2"/>
-    <tableColumn id="4" xr3:uid="{9752297E-8369-4785-A0E4-A4C176425562}" name="Precondition" dataDxfId="58" dataCellStyle="Style 2"/>
-    <tableColumn id="5" xr3:uid="{C718113A-5259-45B0-B023-1F6CEF3B7A64}" name="Test Data" dataDxfId="57" dataCellStyle="Style 2"/>
-    <tableColumn id="6" xr3:uid="{46F14A98-4C7F-49A5-9BA9-7EB42A6EEF84}" name="Test Steps" dataDxfId="56" dataCellStyle="Style 2"/>
-    <tableColumn id="7" xr3:uid="{FC55A5D5-A5D7-40B8-8BBE-671A13FF1C15}" name="Expected" dataDxfId="55" dataCellStyle="Style 2"/>
-    <tableColumn id="8" xr3:uid="{478FFA4B-BD87-44B7-8507-3C6C558FC75A}" name="Actual" dataDxfId="54" dataCellStyle="Style 2"/>
-    <tableColumn id="10" xr3:uid="{470D9E79-D922-4F1D-BCB4-F8568775ED56}" name="Priority" dataDxfId="53" dataCellStyle="Style 2"/>
-    <tableColumn id="9" xr3:uid="{C0729C5C-2137-4868-8B15-44DA6DAFAFD1}" name="Status" dataDxfId="52" dataCellStyle="Style 1"/>
+    <tableColumn id="1" xr3:uid="{490ED60D-B8A5-4191-BC26-B6354824686C}" name="ID" dataDxfId="59" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{B56BF91F-C7D9-4050-B849-9236EEDCACBC}" name="Test Scenario" dataDxfId="58" dataCellStyle="Style 2"/>
+    <tableColumn id="3" xr3:uid="{39B7B130-5AFE-4189-A4C3-073F436E5FC5}" name="Test Case" dataDxfId="57" dataCellStyle="Style 2"/>
+    <tableColumn id="4" xr3:uid="{9752297E-8369-4785-A0E4-A4C176425562}" name="Precondition" dataDxfId="56" dataCellStyle="Style 2"/>
+    <tableColumn id="5" xr3:uid="{C718113A-5259-45B0-B023-1F6CEF3B7A64}" name="Test Data" dataDxfId="55" dataCellStyle="Style 2"/>
+    <tableColumn id="6" xr3:uid="{46F14A98-4C7F-49A5-9BA9-7EB42A6EEF84}" name="Test Steps" dataDxfId="54" dataCellStyle="Style 2"/>
+    <tableColumn id="7" xr3:uid="{FC55A5D5-A5D7-40B8-8BBE-671A13FF1C15}" name="Expected" dataDxfId="53" dataCellStyle="Style 2"/>
+    <tableColumn id="8" xr3:uid="{478FFA4B-BD87-44B7-8507-3C6C558FC75A}" name="Actual" dataDxfId="52" dataCellStyle="Style 2"/>
+    <tableColumn id="10" xr3:uid="{470D9E79-D922-4F1D-BCB4-F8568775ED56}" name="Priority" dataDxfId="51" dataCellStyle="Style 2"/>
+    <tableColumn id="9" xr3:uid="{C0729C5C-2137-4868-8B15-44DA6DAFAFD1}" name="Status" dataDxfId="50" dataCellStyle="Style 1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -5978,163 +6195,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F5E454-6D40-4766-A30A-D6B7E7603A7B}">
-  <dimension ref="A2:B18"/>
+  <dimension ref="B1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="25.7265625" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="9.1796875" style="15"/>
+    <col min="2" max="3" width="25.7265625" style="15" customWidth="1"/>
+    <col min="4" max="6" width="9.1796875" style="15"/>
+    <col min="7" max="7" width="23.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.1796875" style="15"/>
+    <col min="11" max="12" width="30.6328125" style="15" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="2:12" ht="32.5" x14ac:dyDescent="0.65">
+      <c r="B1" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="G1" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="L1" s="34"/>
+    </row>
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
+      <c r="K3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+      <c r="F4" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="K4" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="L4" s="36" t="str">
+        <f>F4</f>
+        <v>New Customer</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="K5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="36">
+        <f>IF(L4="New Customer",COUNTIF('New customer'!A:A,"*TC*"),IF(L4="Log",COUNTIF('Login &amp; Logout'!A:A,"*TC*"),IF(L4="Edit Customer",COUNTIF('Edit customer'!A:A,"*TC*"),0)))</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
+      <c r="K6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="36">
+        <f>IF(L4="New Customer",COUNTIF('New customer'!I:I,"PASS"),IF(L4="Log",COUNTIF('Login &amp; Logout'!J:J,"PASS"),IF(L4="Edit Customer",COUNTIF('Edit customer'!J:J,"PASS"),0)))</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C7" s="1">
         <f>SUM(COUNTIF('Login &amp; Logout'!A3:A81, "*TC*"),COUNTIF('New customer'!A:A, "*TC*"),COUNTIF('Edit customer'!A:A, "*TC*"),COUNTIF('Delete customer'!A:A, "*TC*"),COUNTIF('New account'!A:J, "*TC*"),COUNTIF('Mini statment'!A:J, "*TC*"))</f>
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
+      <c r="K7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="36">
+        <f>IF(L4="New Customer",COUNTIF('New customer'!I:I,"Fail"),IF(L4="Log",COUNTIF('Login &amp; Logout'!J:J,"Fail"),IF(L4="Edit Customer",COUNTIF('Edit customer'!J:J,"Fail"),0)))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C8" s="1">
         <f>SUM(COUNTIF('Login &amp; Logout'!J3:J17,"pass"),COUNTIF('New customer'!A:J,"pass"),COUNTIF('Edit customer'!A:J,"pass"),COUNTIF('Delete customer'!A:J,"pass"))</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
+      <c r="K8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="36">
+        <f>IF(L4="New Customer",COUNTIF('New customer'!I:I,"Not Executed"),IF(L4="Log",COUNTIF('Login &amp; Logout'!J:J,"Not Executed"),IF(L4="Edit Customer",COUNTIF('Edit customer'!J:J,"Not Executed"),0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C9" s="1">
         <f>SUM(COUNTIF('Login &amp; Logout'!J3:J17,"fail"),COUNTIF('New customer'!A:J,"fail"),COUNTIF('Edit customer'!A:J,"fail"),COUNTIF('Delete customer'!A:J,"fail"))</f>
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C10" s="1">
         <f>SUM(COUNTIF('Login &amp; Logout'!J3:J17,"not executed"),COUNTIF('New customer'!A:J,"not executed"),COUNTIF('Edit customer'!A:J,"not executed"),COUNTIF('Delete customer'!A:J,"not executed"),COUNTIF('New account'!A:J, "not executed"),COUNTIF('Mini statment'!A:J, "not executed"))</f>
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="B14" s="37" t="str">
-        <f t="shared" ref="B14:B18" si="0">B11</f>
-        <v>New Customer</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="37">
-        <f>IF(B14="New Customer",COUNTIF('New customer'!A:A,"*TC*"),IF(B14="Log",COUNTIF('Login &amp; Logout'!A:A,"*TC*"),IF(B14="Edit Customer",COUNTIF('Edit customer'!A:A,"*TC*"),0)))</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="37">
-        <f>IF(B14="New Customer",COUNTIF('New customer'!I:I,"PASS"),IF(B14="Log",COUNTIF('Login &amp; Logout'!J:J,"PASS"),IF(B14="Edit Customer",COUNTIF('Edit customer'!J:J,"PASS"),0)))</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="37">
-        <f>IF(B14="New Customer",COUNTIF('New customer'!I:I,"Fail"),IF(B14="Log",COUNTIF('Login &amp; Logout'!J:J,"Fail"),IF(B14="Edit Customer",COUNTIF('Edit customer'!J:J,"Fail"),0)))</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="37">
-        <f>IF(B14="New Customer",COUNTIF('New customer'!I:I,"Not Executed"),IF(B14="Log",COUNTIF('Login &amp; Logout'!J:J,"Not Executed"),IF(B14="Edit Customer",COUNTIF('Edit customer'!J:J,"Not Executed"),0)))</f>
-        <v>0</v>
-      </c>
-    </row>
+    <row r="11" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="F4:H6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L4:L8">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6D786BFB-2A85-4506-AE31-2D6B3E1D8250}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B11" xr:uid="{714BD288-F0AA-464C-8AA8-06F6C0479280}">
+    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{714BD288-F0AA-464C-8AA8-06F6C0479280}">
       <formula1>"Choose, Log, New Customer,Edit Customer"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B15:B18" calculatedColumn="1"/>
-  </ignoredErrors>
   <drawing r:id="rId1"/>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6D786BFB-2A85-4506-AE31-2D6B3E1D8250}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L4:L8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6671,50 +6930,50 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J3:J9">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J9">
-    <cfRule type="cellIs" dxfId="47" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J9">
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
       <formula>"Default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J17 I18:I1048576">
-    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="11" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:J17 I18">
-    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="19" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="20" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J17 I18">
-    <cfRule type="cellIs" dxfId="39" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
       <formula>"Default"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7623,24 +7882,24 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:I32">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I32">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
       <formula>"Default"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8538,43 +8797,43 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J3:J8 K11:K14">
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J8 K11:K14">
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J35">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J35">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"Default"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8861,21 +9120,21 @@
     <mergeCell ref="A2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J8">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J8">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9115,21 +9374,21 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J3:J9">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J9">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9348,41 +9607,22 @@
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:J4">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+  <conditionalFormatting sqref="J3:J8">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+  <conditionalFormatting sqref="J4:J8">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J8">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>"Not Executed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J8">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Guru99/3 - Design & Execution/TC_V2.xlsx
+++ b/Guru99/3 - Design & Execution/TC_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru99\3 - Design &amp; Execution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74A2073-6695-426F-A9D2-AA1BA9E0D5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A763D300-7E57-4F61-8D92-95C566F97BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="383">
   <si>
     <t>ID</t>
   </si>
@@ -1602,9 +1602,6 @@
     <t>error message appears that tell the user that ID field can not be blank</t>
   </si>
   <si>
-    <t>Module</t>
-  </si>
-  <si>
     <t>Choose Module</t>
   </si>
   <si>
@@ -1630,13 +1627,106 @@
   </si>
   <si>
     <t>Specific Module</t>
+  </si>
+  <si>
+    <t>Cycle 1</t>
+  </si>
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>Describtion</t>
+  </si>
+  <si>
+    <t>bug_1</t>
+  </si>
+  <si>
+    <t>bug_2</t>
+  </si>
+  <si>
+    <t>bug_3</t>
+  </si>
+  <si>
+    <t>bug_4</t>
+  </si>
+  <si>
+    <t>bug_5</t>
+  </si>
+  <si>
+    <t>bug_6</t>
+  </si>
+  <si>
+    <t>bug_7</t>
+  </si>
+  <si>
+    <t>bug_8</t>
+  </si>
+  <si>
+    <t>bug_9</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>Manager try to add new customer but there is
+a bug appears while filling the customer form in 
+the name field when the first character is space</t>
+  </si>
+  <si>
+    <t>Manager try to add new customer but there is
+a bug appears while filling the customer form in 
+the address field when the first character is space</t>
+  </si>
+  <si>
+    <t>Manager try to add new customer but there is
+a bug appears while filling the customer form in 
+the address field when it containes spesial characters</t>
+  </si>
+  <si>
+    <t>Manager try to add new customer but there is
+a bug appears while filling the customer form in 
+the address field when it left blank</t>
+  </si>
+  <si>
+    <t>Manager try to add new customer but there is
+a bug appears while filling the customer form in 
+the city field start with space</t>
+  </si>
+  <si>
+    <t>Manager try to add new customer but there is
+a bug appears while filling the customer form in 
+the phone number field start with space</t>
+  </si>
+  <si>
+    <t>Manager try to add new customer but there is
+a bug appears while filling the customer form in 
+the email field enter invalid data</t>
+  </si>
+  <si>
+    <t>Manager try to add new customer but there is
+a bug appears while filling the customer form in 
+the state field start with space</t>
+  </si>
+  <si>
+    <t>Manager try to add new customer but there is
+a bug appears while filling the customer form in 
+the pin field start with space</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Cycle 2</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1718,8 +1808,23 @@
       <name val="Agency FB"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Agency FB"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1767,7 +1872,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1953,7 +2064,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2031,6 +2142,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2046,43 +2190,19 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2091,7 +2211,7 @@
     <cellStyle name="Style 1" xfId="1" xr:uid="{48540A74-5A38-46CE-A885-A7DEB07E9381}"/>
     <cellStyle name="Style 2" xfId="2" xr:uid="{C54BD104-D706-4CC8-B1AF-F972C2684223}"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="104">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2414,6 +2534,216 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2533,26 +2863,135 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="double">
-          <color auto="1"/>
-        </left>
-        <right style="double">
-          <color auto="1"/>
-        </right>
-        <top style="double">
-          <color auto="1"/>
-        </top>
-        <bottom style="double">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="double">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="double">
-          <color auto="1"/>
-        </horizontal>
-      </border>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Agency FB"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Agency FB"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Agency FB"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Agency FB"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Agency FB"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Agency FB"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Agency FB"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Agency FB"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2565,20 +3004,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Agency FB"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.89999084444715716"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2591,110 +3022,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Agency FB"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2838,14 +3171,37 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <border>
+        <left style="double">
+          <color auto="1"/>
+        </left>
+        <right style="double">
+          <color auto="1"/>
+        </right>
+        <top style="double">
+          <color auto="1"/>
+        </top>
+        <bottom style="double">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="double">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="double">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{AB4FE4A9-2E76-4B1F-81EF-FEC07E8E0282}">
-      <tableStyleElement type="wholeTable" dxfId="44"/>
+      <tableStyleElement type="wholeTable" dxfId="103"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF262626"/>
       <color rgb="FFC49500"/>
     </mruColors>
   </colors>
@@ -2861,411 +3217,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="percentStacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$K$5:$K$8</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Total TC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PASS</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fail</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Not Executed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$L$5:$L$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-5FFE-4145-88E4-CC645F35BA14}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="1428859440"/>
-        <c:axId val="406157072"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1428859440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="406157072"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="406157072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1428859440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3638,7 +3589,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4098,6 +4049,467 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cycle 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$O$4:$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Total TC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pass</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fail</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Not Executed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$O$5:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B08-4761-9138-981DA8DC89D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cycle 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$O$4:$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Total TC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pass</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fail</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Not Executed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$O$6:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5B08-4761-9138-981DA8DC89D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="305900576"/>
+        <c:axId val="1308331152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="305900576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1308331152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1308331152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="305900576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4139,13 +4551,10 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -4216,502 +4625,6 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="252">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5245,7 +5158,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5721,33 +5634,527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>607401</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>125895</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>178254</xdr:rowOff>
+      <xdr:rowOff>81344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>8355</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66841</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>147876</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>113082</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{865B3C3C-B281-487A-B30F-FCE734AB6194}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF3D2198-0043-C46B-35F4-FB8131692C92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5763,23 +6170,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>65004</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>469725</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>116139</xdr:rowOff>
+      <xdr:rowOff>142783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1668379</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>365342</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>52138</xdr:rowOff>
+      <xdr:rowOff>130480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF3D2198-0043-C46B-35F4-FB8131692C92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C085170D-35BE-78D7-3382-51682CF300A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5799,23 +6206,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>342064</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>73193</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314892</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>163707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>183816</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>641960</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>116974</xdr:rowOff>
+      <xdr:rowOff>140743</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C085170D-35BE-78D7-3382-51682CF300A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C342FF-B643-34F4-2933-868AFBAF38F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5843,31 +6250,39 @@
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B72A5ACC-2E50-4F97-A328-3FEEF764509B}" name="#" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{7CBB9464-FC05-4E8B-982E-2A12E8025BC6}" name="Data" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Style 2"/>
+    <tableColumn id="1" xr3:uid="{B72A5ACC-2E50-4F97-A328-3FEEF764509B}" name="#" dataDxfId="102" totalsRowDxfId="101" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{7CBB9464-FC05-4E8B-982E-2A12E8025BC6}" name="Data" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="Style 2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FB2D494-5F6C-4484-96B5-FE85546882D2}" name="Table2" displayName="Table2" ref="K3:L8" headerRowDxfId="49" headerRowCellStyle="Style 1">
-  <autoFilter ref="K3:L8" xr:uid="{6FB2D494-5F6C-4484-96B5-FE85546882D2}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0C31FF33-E6D9-449A-B3AF-85F8D5422CBE}" name="Table6" displayName="Table6" ref="N4:R6" headerRowDxfId="71" dataDxfId="69" totalsRowDxfId="70">
+  <autoFilter ref="N4:R6" xr:uid="{0C31FF33-E6D9-449A-B3AF-85F8D5422CBE}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{94E04D20-98AB-4B29-A282-2928C8B5B08B}" name="#" totalsRowLabel="Total" dataDxfId="46" totalsRowDxfId="48" dataCellStyle="Style 1"/>
-    <tableColumn id="2" xr3:uid="{012589E2-0609-44C8-95AA-C8C4D9A4EFF9}" name="Data" totalsRowFunction="count" dataDxfId="45" totalsRowDxfId="47" dataCellStyle="Style 1">
-      <calculatedColumnFormula>F4</calculatedColumnFormula>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9DBC923E-EFF7-49AB-A2ED-8B79F0C13714}" name="#" totalsRowLabel="Total" dataDxfId="72" totalsRowDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{685A5DB2-DC97-4B8B-9E3F-436FCED90CA8}" name="Total TC" dataDxfId="68" totalsRowDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{6B64B690-FCDB-4A7F-BD41-E98D9DFFD8BF}" name="Pass" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{56ECF0C6-8009-46E6-81D4-A0834F7D6873}" name="Fail" dataDxfId="66">
+      <calculatedColumnFormula>IF(G4="New Customer",COUNTIF('New customer'!I:I,"Fail"),IF(G4="Log",COUNTIF('Login &amp; Logout'!J:J,"Fail"),IF(G4="Edit Customer",COUNTIF('Edit customer'!J:J,"Fail"),0)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{760B8D93-8EBC-4075-8646-91FA6A41FEBD}" name="Not Executed" totalsRowFunction="count" dataDxfId="65">
+      <calculatedColumnFormula>IF(G3="New Customer",COUNTIF('New customer'!L:L,"Not Executed"),0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF1DA6A8-0406-40EC-847E-90AA70E693C4}" name="Table24" displayName="Table24" ref="A11:J17" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF1DA6A8-0406-40EC-847E-90AA70E693C4}" name="Table24" displayName="Table24" ref="A11:J17" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
   <autoFilter ref="A11:J17" xr:uid="{CF1DA6A8-0406-40EC-847E-90AA70E693C4}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5884,23 +6299,23 @@
     <sortCondition ref="I11:I17"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3784502C-18CF-41CC-9169-218E5E27D77D}" name="ID" dataDxfId="71" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{5A760E70-50B6-4936-8A81-202B446C838B}" name="Test Scenario" dataDxfId="70" dataCellStyle="Style 2"/>
-    <tableColumn id="3" xr3:uid="{3105FEE7-F800-4A41-8C70-539055D79DF8}" name="Test Case" dataDxfId="69" dataCellStyle="Style 2"/>
-    <tableColumn id="4" xr3:uid="{17F3EF40-0ABC-40FD-8AAD-25272842DA14}" name="Precondition" dataDxfId="68" dataCellStyle="Style 2"/>
-    <tableColumn id="5" xr3:uid="{E8A17FF4-A33A-486C-94E5-39769F7E53E2}" name="Test Data" dataDxfId="67" dataCellStyle="Style 2"/>
-    <tableColumn id="6" xr3:uid="{323B91BA-E18F-4ECF-9C24-0DD4448CCFF6}" name="Test Steps" dataDxfId="66" dataCellStyle="Style 2"/>
-    <tableColumn id="7" xr3:uid="{F6243F6B-BDD4-4668-B403-E817CA6926E7}" name="Expected" dataDxfId="65" dataCellStyle="Style 2"/>
-    <tableColumn id="8" xr3:uid="{11930CB6-CE93-4E81-9284-3985ED7DF1C1}" name="Actual" dataDxfId="64" dataCellStyle="Style 2"/>
-    <tableColumn id="10" xr3:uid="{49C1EF10-7281-4C78-A928-5A561D4DE6A5}" name="Priority" dataDxfId="63" dataCellStyle="Style 2"/>
-    <tableColumn id="9" xr3:uid="{0EB40056-6AA7-48E7-A87E-9D3D000F5424}" name="Status" dataDxfId="62" dataCellStyle="Style 1"/>
+    <tableColumn id="1" xr3:uid="{3784502C-18CF-41CC-9169-218E5E27D77D}" name="ID" dataDxfId="96" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{5A760E70-50B6-4936-8A81-202B446C838B}" name="Test Scenario" dataDxfId="95" dataCellStyle="Style 2"/>
+    <tableColumn id="3" xr3:uid="{3105FEE7-F800-4A41-8C70-539055D79DF8}" name="Test Case" dataDxfId="94" dataCellStyle="Style 2"/>
+    <tableColumn id="4" xr3:uid="{17F3EF40-0ABC-40FD-8AAD-25272842DA14}" name="Precondition" dataDxfId="93" dataCellStyle="Style 2"/>
+    <tableColumn id="5" xr3:uid="{E8A17FF4-A33A-486C-94E5-39769F7E53E2}" name="Test Data" dataDxfId="92" dataCellStyle="Style 2"/>
+    <tableColumn id="6" xr3:uid="{323B91BA-E18F-4ECF-9C24-0DD4448CCFF6}" name="Test Steps" dataDxfId="91" dataCellStyle="Style 2"/>
+    <tableColumn id="7" xr3:uid="{F6243F6B-BDD4-4668-B403-E817CA6926E7}" name="Expected" dataDxfId="90" dataCellStyle="Style 2"/>
+    <tableColumn id="8" xr3:uid="{11930CB6-CE93-4E81-9284-3985ED7DF1C1}" name="Actual" dataDxfId="89" dataCellStyle="Style 2"/>
+    <tableColumn id="10" xr3:uid="{49C1EF10-7281-4C78-A928-5A561D4DE6A5}" name="Priority" dataDxfId="88" dataCellStyle="Style 2"/>
+    <tableColumn id="9" xr3:uid="{0EB40056-6AA7-48E7-A87E-9D3D000F5424}" name="Status" dataDxfId="87" dataCellStyle="Style 1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{055B3D66-4363-45FC-870D-81B4816EA226}" name="Table245" displayName="Table245" ref="A3:J9" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{055B3D66-4363-45FC-870D-81B4816EA226}" name="Table245" displayName="Table245" ref="A3:J9" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85" headerRowCellStyle="Style 1" dataCellStyle="Style 2">
   <autoFilter ref="A3:J9" xr:uid="{055B3D66-4363-45FC-870D-81B4816EA226}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5917,16 +6332,16 @@
     <sortCondition ref="I11:I17"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{490ED60D-B8A5-4191-BC26-B6354824686C}" name="ID" dataDxfId="59" dataCellStyle="Style 2"/>
-    <tableColumn id="2" xr3:uid="{B56BF91F-C7D9-4050-B849-9236EEDCACBC}" name="Test Scenario" dataDxfId="58" dataCellStyle="Style 2"/>
-    <tableColumn id="3" xr3:uid="{39B7B130-5AFE-4189-A4C3-073F436E5FC5}" name="Test Case" dataDxfId="57" dataCellStyle="Style 2"/>
-    <tableColumn id="4" xr3:uid="{9752297E-8369-4785-A0E4-A4C176425562}" name="Precondition" dataDxfId="56" dataCellStyle="Style 2"/>
-    <tableColumn id="5" xr3:uid="{C718113A-5259-45B0-B023-1F6CEF3B7A64}" name="Test Data" dataDxfId="55" dataCellStyle="Style 2"/>
-    <tableColumn id="6" xr3:uid="{46F14A98-4C7F-49A5-9BA9-7EB42A6EEF84}" name="Test Steps" dataDxfId="54" dataCellStyle="Style 2"/>
-    <tableColumn id="7" xr3:uid="{FC55A5D5-A5D7-40B8-8BBE-671A13FF1C15}" name="Expected" dataDxfId="53" dataCellStyle="Style 2"/>
-    <tableColumn id="8" xr3:uid="{478FFA4B-BD87-44B7-8507-3C6C558FC75A}" name="Actual" dataDxfId="52" dataCellStyle="Style 2"/>
-    <tableColumn id="10" xr3:uid="{470D9E79-D922-4F1D-BCB4-F8568775ED56}" name="Priority" dataDxfId="51" dataCellStyle="Style 2"/>
-    <tableColumn id="9" xr3:uid="{C0729C5C-2137-4868-8B15-44DA6DAFAFD1}" name="Status" dataDxfId="50" dataCellStyle="Style 1"/>
+    <tableColumn id="1" xr3:uid="{490ED60D-B8A5-4191-BC26-B6354824686C}" name="ID" dataDxfId="84" dataCellStyle="Style 2"/>
+    <tableColumn id="2" xr3:uid="{B56BF91F-C7D9-4050-B849-9236EEDCACBC}" name="Test Scenario" dataDxfId="83" dataCellStyle="Style 2"/>
+    <tableColumn id="3" xr3:uid="{39B7B130-5AFE-4189-A4C3-073F436E5FC5}" name="Test Case" dataDxfId="82" dataCellStyle="Style 2"/>
+    <tableColumn id="4" xr3:uid="{9752297E-8369-4785-A0E4-A4C176425562}" name="Precondition" dataDxfId="81" dataCellStyle="Style 2"/>
+    <tableColumn id="5" xr3:uid="{C718113A-5259-45B0-B023-1F6CEF3B7A64}" name="Test Data" dataDxfId="80" dataCellStyle="Style 2"/>
+    <tableColumn id="6" xr3:uid="{46F14A98-4C7F-49A5-9BA9-7EB42A6EEF84}" name="Test Steps" dataDxfId="79" dataCellStyle="Style 2"/>
+    <tableColumn id="7" xr3:uid="{FC55A5D5-A5D7-40B8-8BBE-671A13FF1C15}" name="Expected" dataDxfId="78" dataCellStyle="Style 2"/>
+    <tableColumn id="8" xr3:uid="{478FFA4B-BD87-44B7-8507-3C6C558FC75A}" name="Actual" dataDxfId="77" dataCellStyle="Style 2"/>
+    <tableColumn id="10" xr3:uid="{470D9E79-D922-4F1D-BCB4-F8568775ED56}" name="Priority" dataDxfId="76" dataCellStyle="Style 2"/>
+    <tableColumn id="9" xr3:uid="{C0729C5C-2137-4868-8B15-44DA6DAFAFD1}" name="Status" dataDxfId="75" dataCellStyle="Style 1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -6195,107 +6610,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F5E454-6D40-4766-A30A-D6B7E7603A7B}">
-  <dimension ref="B1:L11"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:H6"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.1796875" style="15"/>
     <col min="2" max="3" width="25.7265625" style="15" customWidth="1"/>
-    <col min="4" max="6" width="9.1796875" style="15"/>
-    <col min="7" max="7" width="23.08984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.1796875" style="15"/>
-    <col min="11" max="12" width="30.6328125" style="15" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="15"/>
+    <col min="4" max="7" width="9.1796875" style="15"/>
+    <col min="8" max="8" width="23.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="9.1796875" style="15"/>
+    <col min="14" max="22" width="10.6328125" style="15" customWidth="1"/>
+    <col min="23" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="32.5" x14ac:dyDescent="0.65">
-      <c r="B1" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="G1" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>358</v>
-      </c>
-      <c r="L1" s="34"/>
-    </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:18" ht="32.5" x14ac:dyDescent="0.65">
+      <c r="B1" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="H1" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+    </row>
+    <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="2:18" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="38" t="s">
-        <v>351</v>
-      </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40"/>
-      <c r="K4" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="L4" s="36" t="str">
-        <f>F4</f>
-        <v>New Customer</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="N4" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q4" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="K5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="36">
-        <f>IF(L4="New Customer",COUNTIF('New customer'!A:A,"*TC*"),IF(L4="Log",COUNTIF('Login &amp; Logout'!A:A,"*TC*"),IF(L4="Edit Customer",COUNTIF('Edit customer'!A:A,"*TC*"),0)))</f>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="N5" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="O5" s="49">
+        <f>IF(G4="New Customer",COUNTIF('New customer'!A:A,"*TC*"),IF(G4="Log",COUNTIF('Login &amp; Logout'!A:A,"*TC*"),IF(G4="Edit Customer",COUNTIF('Edit customer'!A:A,"*TC*"),0)))</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P5" s="49">
+        <f>IF(G4="New Customer",COUNTIF('New customer'!I:I,"PASS"),IF(G4="Log",COUNTIF('Login &amp; Logout'!J:J,"PASS"),IF(G4="Edit Customer",COUNTIF('Edit customer'!J:J,"PASS"),0)))</f>
+        <v>20</v>
+      </c>
+      <c r="Q5" s="49">
+        <f>IF(G4="New Customer",COUNTIF('New customer'!I:I,"Fail"),IF(G4="Log",COUNTIF('Login &amp; Logout'!J:J,"Fail"),IF(G4="Edit Customer",COUNTIF('Edit customer'!J:J,"Fail"),0)))</f>
+        <v>10</v>
+      </c>
+      <c r="R5" s="49">
+        <f>IF(G4="New Customer",COUNTIF('New customer'!I:I,"Not Executed"),IF(G4="Log",COUNTIF('Login &amp; Logout'!J:J,"Not Executed"),IF(G4="Edit Customer",COUNTIF('Edit customer'!J:J,"Not Executed"),0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46"/>
-      <c r="K6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="36">
-        <f>IF(L4="New Customer",COUNTIF('New customer'!I:I,"PASS"),IF(L4="Log",COUNTIF('Login &amp; Logout'!J:J,"PASS"),IF(L4="Edit Customer",COUNTIF('Edit customer'!J:J,"PASS"),0)))</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
+      <c r="N6" s="49" t="s">
+        <v>381</v>
+      </c>
+      <c r="O6" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="49">
+        <f>IF(G4="New Customer",COUNTIF('New customer'!L:L,"PASS"),0)</f>
+        <v>28</v>
+      </c>
+      <c r="Q6" s="49">
+        <f>IF(G4="New Customer",COUNTIF('New customer'!L:L,"FAIL"),0)</f>
+        <v>1</v>
+      </c>
+      <c r="R6" s="49">
+        <f>IF(G4="New Customer",COUNTIF('New customer'!L:L,"Not Executed"),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
@@ -6303,15 +6747,8 @@
         <f>SUM(COUNTIF('Login &amp; Logout'!A3:A81, "*TC*"),COUNTIF('New customer'!A:A, "*TC*"),COUNTIF('Edit customer'!A:A, "*TC*"),COUNTIF('Delete customer'!A:A, "*TC*"),COUNTIF('New account'!A:J, "*TC*"),COUNTIF('Mini statment'!A:J, "*TC*"))</f>
         <v>88</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="36">
-        <f>IF(L4="New Customer",COUNTIF('New customer'!I:I,"Fail"),IF(L4="Log",COUNTIF('Login &amp; Logout'!J:J,"Fail"),IF(L4="Edit Customer",COUNTIF('Edit customer'!J:J,"Fail"),0)))</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="2:18" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
@@ -6319,15 +6756,8 @@
         <f>SUM(COUNTIF('Login &amp; Logout'!J3:J17,"pass"),COUNTIF('New customer'!A:J,"pass"),COUNTIF('Edit customer'!A:J,"pass"),COUNTIF('Delete customer'!A:J,"pass"))</f>
         <v>32</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" s="36">
-        <f>IF(L4="New Customer",COUNTIF('New customer'!I:I,"Not Executed"),IF(L4="Log",COUNTIF('Login &amp; Logout'!J:J,"Not Executed"),IF(L4="Edit Customer",COUNTIF('Edit customer'!J:J,"Not Executed"),0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="2:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
@@ -6336,7 +6766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
         <v>65</v>
       </c>
@@ -6345,29 +6775,29 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="F4:H6"/>
+    <mergeCell ref="G4:I6"/>
+    <mergeCell ref="N1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="L4:L8">
+  <conditionalFormatting sqref="P8">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
+        <color rgb="FFFF555A"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6D786BFB-2A85-4506-AE31-2D6B3E1D8250}</x14:id>
+          <x14:id>{355B93D2-4F43-4BB0-AB70-FB7C9430F1F7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{714BD288-F0AA-464C-8AA8-06F6C0479280}">
+    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{714BD288-F0AA-464C-8AA8-06F6C0479280}">
       <formula1>"Choose, Log, New Customer,Edit Customer"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6381,15 +6811,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6D786BFB-2A85-4506-AE31-2D6B3E1D8250}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+          <x14:cfRule type="dataBar" id="{355B93D2-4F43-4BB0-AB70-FB7C9430F1F7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L4:L8</xm:sqref>
+          <xm:sqref>P8</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6422,36 +6854,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="44"/>
       <c r="K1" s="2">
         <f>COUNTIF('Login &amp; Logout'!J3:J17,"pass")</f>
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
@@ -6676,18 +7108,18 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
@@ -6930,50 +7362,50 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J3:J9">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J9">
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="5" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="6" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J9">
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
       <formula>"Default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J17 I18:I1048576">
-    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="10" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="11" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="12" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:J17 I18">
-    <cfRule type="cellIs" dxfId="34" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="19" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="20" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J17 I18">
-    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="16" operator="equal">
       <formula>"Default"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6993,32 +7425,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182AED3B-5B54-47CA-9351-D206B6473FEB}">
-  <dimension ref="A1:I32"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="44" zoomScaleNormal="32" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="67" zoomScaleNormal="32" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="9" width="35.6328125" style="20" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="20"/>
+    <col min="1" max="5" width="35.6328125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="70.6328125" style="20" customWidth="1"/>
+    <col min="7" max="8" width="35.6328125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="60.6328125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="20.6328125" style="20" customWidth="1"/>
+    <col min="13" max="14" width="40.6328125" style="20" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:14" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-    </row>
-    <row r="2" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+    </row>
+    <row r="2" spans="1:14" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -7046,8 +7495,23 @@
       <c r="I2" s="14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J2" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>47</v>
       </c>
@@ -7075,8 +7539,15 @@
       <c r="I3" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J3" s="48"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>54</v>
       </c>
@@ -7102,8 +7573,15 @@
       <c r="I4" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J4" s="48"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>57</v>
       </c>
@@ -7129,8 +7607,15 @@
       <c r="I5" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J5" s="48"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>59</v>
       </c>
@@ -7158,8 +7643,19 @@
       <c r="I6" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J6" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
@@ -7185,8 +7681,15 @@
       <c r="I7" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J7" s="48"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>63</v>
       </c>
@@ -7214,8 +7717,19 @@
       <c r="I8" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J8" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>72</v>
       </c>
@@ -7243,8 +7757,19 @@
       <c r="I9" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J9" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>75</v>
       </c>
@@ -7272,8 +7797,19 @@
       <c r="I10" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J10" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>78</v>
       </c>
@@ -7301,8 +7837,19 @@
       <c r="I11" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J11" s="48" t="s">
+        <v>365</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>85</v>
       </c>
@@ -7328,8 +7875,15 @@
       <c r="I12" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J12" s="48"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>86</v>
       </c>
@@ -7355,8 +7909,15 @@
       <c r="I13" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J13" s="48"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>87</v>
       </c>
@@ -7382,8 +7943,15 @@
       <c r="I14" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J14" s="48"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>90</v>
       </c>
@@ -7409,8 +7977,15 @@
       <c r="I15" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J15" s="48"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>93</v>
       </c>
@@ -7436,8 +8011,15 @@
       <c r="I16" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J16" s="48"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>96</v>
       </c>
@@ -7465,8 +8047,19 @@
       <c r="I17" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J17" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>99</v>
       </c>
@@ -7492,8 +8085,15 @@
       <c r="I18" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J18" s="48"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>102</v>
       </c>
@@ -7521,8 +8121,17 @@
       <c r="I19" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J19" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
         <v>104</v>
       </c>
@@ -7548,8 +8157,15 @@
       <c r="I20" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J20" s="48"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
         <v>107</v>
       </c>
@@ -7575,8 +8191,15 @@
       <c r="I21" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J21" s="48"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" ht="202.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
         <v>110</v>
       </c>
@@ -7604,8 +8227,23 @@
       <c r="I22" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J22" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
         <v>115</v>
       </c>
@@ -7631,8 +8269,15 @@
       <c r="I23" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J23" s="48"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
         <v>126</v>
       </c>
@@ -7658,8 +8303,15 @@
       <c r="I24" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J24" s="48"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
         <v>130</v>
       </c>
@@ -7687,8 +8339,19 @@
       <c r="I25" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J25" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
         <v>134</v>
       </c>
@@ -7714,8 +8377,15 @@
       <c r="I26" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J26" s="48"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
         <v>138</v>
       </c>
@@ -7741,8 +8411,15 @@
       <c r="I27" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J27" s="48"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
         <v>141</v>
       </c>
@@ -7768,8 +8445,15 @@
       <c r="I28" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J28" s="48"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
         <v>143</v>
       </c>
@@ -7795,8 +8479,15 @@
       <c r="I29" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J29" s="48"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
         <v>147</v>
       </c>
@@ -7824,8 +8515,19 @@
       <c r="I30" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="342" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J30" s="48" t="s">
+        <v>369</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" ht="187" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
         <v>151</v>
       </c>
@@ -7851,8 +8553,15 @@
       <c r="I31" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="47" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="J31" s="48"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" ht="47" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>155</v>
       </c>
@@ -7876,12 +8585,98 @@
       <c r="I32" s="13" t="s">
         <v>23</v>
       </c>
+      <c r="J32" s="48"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:I32">
+    <cfRule type="cellIs" dxfId="52" priority="22" operator="equal">
+      <formula>"Not Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="23" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="24" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I32">
+    <cfRule type="cellIs" dxfId="49" priority="25" operator="equal">
+      <formula>"Default"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="26" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="27" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="cellIs" dxfId="46" priority="19" operator="equal">
+      <formula>"Not Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="20" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="21" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="cellIs" dxfId="43" priority="16" operator="equal">
+      <formula>"Not Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="17" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="18" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2">
+    <cfRule type="cellIs" dxfId="40" priority="13" operator="equal">
+      <formula>"Not Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="14" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="15" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2">
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
+      <formula>"Not Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="11" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
+      <formula>"Not Executed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L32">
     <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
@@ -7892,7 +8687,7 @@
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I32">
+  <conditionalFormatting sqref="L3:L32">
     <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
       <formula>"Default"</formula>
     </cfRule>
@@ -7904,7 +8699,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I32" xr:uid="{6F69B301-4925-44EA-A8B6-F82B76E36D30}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I32 L3:L32" xr:uid="{6F69B301-4925-44EA-A8B6-F82B76E36D30}">
       <formula1>"Not Executed,PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7915,6 +8710,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F52083-4F3D-44DB-B858-864F598BC2B4}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="25" workbookViewId="0">
@@ -7935,32 +8731,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="24" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:11" s="28" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="27" t="s">
@@ -8129,18 +8925,18 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="24" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:11" s="28" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="27" t="s">
@@ -8848,9 +9644,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D149986-1BEC-4EAD-BEB8-860585462811}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -8870,32 +9667,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:10" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" s="28" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="27" t="s">
@@ -9149,6 +9946,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F80D4A-4BA5-4F7E-AFFA-5E7E5B272616}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScale="43" zoomScaleNormal="69" workbookViewId="0">
@@ -9161,32 +9959,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:10" ht="24" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="27" t="s">
@@ -9403,6 +10201,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFD557E-1D4E-45A0-B33E-AFBF6F65C0A5}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScale="51" workbookViewId="0">
@@ -9416,32 +10215,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="42" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:10" ht="24" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="27" t="s">
